--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yona\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yona\QA\구직\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576F9D74-9439-44E6-8919-149F36091114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9487F80-EF98-4930-846E-32EFA9B48DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71C97345-8A3D-42C4-B27F-751A04A36C73}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="OK">#REF!</definedName>
   </definedNames>
@@ -43,7 +40,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yeonhwa Lee</author>
-    <author/>
   </authors>
   <commentList>
     <comment ref="B8" authorId="0" shapeId="0" xr:uid="{6D9498B5-3D33-49DB-9593-EE95CD44F557}">
@@ -190,7 +186,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>홈페이지명으로</t>
+          <t>사이트유형으로</t>
         </r>
         <r>
           <rPr>
@@ -241,37 +237,112 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="1" shapeId="0" xr:uid="{E6A96D22-BAE8-41E5-A96C-67061E2C08AC}">
+    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{C8FD6007-D4D8-4B1E-85E3-68FEBB5BE5C5}">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
           </rPr>
-          <t>======
-ID#AAAAXsx4uzU
-USER    (2022-04-20 04:42:09)
-Pass/Fail/Not-Available</t>
+          <t>등록된</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{47D66FE3-14F7-4359-8D88-55DCBC35A8B6}">
-      <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAAAXsx4uzc
-USER    (2022-04-20 04:42:09)
-Issue No는 등록된 결함관리툴의 번호를 적는 곳으로 추적성을 확보하기 위함</t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결함관리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력하여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추적성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확보</t>
         </r>
       </text>
     </comment>
@@ -280,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="118">
   <si>
     <t>테스트 진행율</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -355,10 +426,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>브론사이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -374,9 +441,6 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>브론사이트</t>
-  </si>
-  <si>
     <t>기등록 ID 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -386,14 +450,6 @@
   </si>
   <si>
     <t>TC003</t>
-  </si>
-  <si>
-    <t>기등록 ID 입력 후 미등록 ID 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존에 등록된 ID와 등록되지 않는 ID 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TC004</t>
@@ -473,11 +529,6 @@
   </si>
   <si>
     <t>TC011</t>
-  </si>
-  <si>
-    <t>유효한 PW 입력
-(생성규칙 충족)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영문, 숫자, 특수문자의 모든 조합으로 이루어진 PW 입력값 준비</t>
@@ -571,10 +622,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>'비밀번호를 입력하세요.' 라는 안내창이 노출됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TC019</t>
   </si>
   <si>
@@ -628,13 +675,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 아이디 입력창에 "test"입력
-2. 포커스 이동
-3. 아이디 입력창에 "tes1"입력
-4. 포커스 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 아이디 입력창에 "testab1234567890"입력
 2. 포커스 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -696,9 +736,6 @@
     <t>1. 아이디 입력창에 "Tes1"입력
 2. 포커스 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC021</t>
   </si>
   <si>
     <t>8자 미만의 PW 입력값 준비</t>
@@ -725,10 +762,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>'비밀번호 입력조건을 다시 한번 확인해주세요.' 라는 안내창이 노출됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 비밀번호 입력창에 "TESTPW01234567890"입력
 2. 비밀번호 확인 입력창에 "TESTPW01234567890"입력
 3. 나머지 항목에 임의의 값 입력
@@ -748,10 +781,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>'비밀번호가 일치하지 않습니다.' 라는 안내창이 노출됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 아이디 입력창 미입력
 2. 포커스 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -776,6 +805,39 @@
   </si>
   <si>
     <t>기본정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효한 PW 입력
+(생성규칙 충족 - 3가지 이상 조합)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑몰웹사이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력했던 값이 모두 초기화됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16자리까지만 입력되고 17자리부터는 더 이상 입력되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'비밀번호 입력 조건을 다시 한번 확인해주세요.' 라는 안내창이 노출됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'비밀번호 항목은 필수 입력값입니다.' 라는 안내창이 노출됨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1038,7 +1100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1115,6 +1177,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,11 +1192,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1159,7 +1236,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
+      <xdr:colOff>1367118</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
@@ -1176,8 +1253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7024809" y="31698"/>
-          <a:ext cx="4393985" cy="1279389"/>
+          <a:off x="7136868" y="31698"/>
+          <a:ext cx="4293132" cy="1279389"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1299,28 +1376,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="테스트케이스양식"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="테스트케이스양식 (2)"/>
-      <sheetName val="테스트절차양식"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1623,23 +1678,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1009"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="51.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
     <col min="9" max="9" width="42.69921875" style="1" customWidth="1"/>
     <col min="10" max="10" width="58.19921875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.19921875" style="1" customWidth="1"/>
@@ -1656,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <f>COUNTA(M9:M29)/COUNTA(A9:A29)</f>
+        <f>COUNTA(M9:M28)/COUNTA(A9:A28)</f>
         <v>1</v>
       </c>
     </row>
@@ -1665,8 +1717,8 @@
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <f>COUNTIF(M9:M29, "Pass")</f>
-        <v>20</v>
+        <f>COUNTIF(M9:M28, "Pass")</f>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1674,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5">
-        <f>COUNTIF(M10:M30, "Fail")</f>
+        <f>COUNTIF(M10:M29, "Fail")</f>
         <v>1</v>
       </c>
     </row>
@@ -1683,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <f>COUNTIF(M11:M31, "N/A")</f>
+        <f>COUNTIF(M11:M30, "N/A")</f>
         <v>0</v>
       </c>
     </row>
@@ -1692,8 +1744,8 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <f>COUNTIF(M9:M29, "Pass")/(COUNTA(A9:A29)-COUNTIF(M9:M29, "Close"))</f>
-        <v>0.95238095238095233</v>
+        <f>COUNTIF(M9:M28, "Pass")/(COUNTA(A9:A28)-COUNTIF(M9:M28, "Close"))</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1761,34 +1813,38 @@
         <v>21</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="I9" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="17">
+        <v>45913</v>
+      </c>
       <c r="M9" s="18" t="s">
         <v>1</v>
       </c>
@@ -1808,37 +1864,41 @@
     </row>
     <row r="10" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="H10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="I10" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="17">
+        <v>45913</v>
+      </c>
       <c r="M10" s="18" t="s">
         <v>1</v>
       </c>
@@ -1856,39 +1916,43 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
     </row>
-    <row r="11" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="I11" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="17">
+        <v>45913</v>
+      </c>
       <c r="M11" s="18" t="s">
         <v>1</v>
       </c>
@@ -1908,41 +1972,45 @@
     </row>
     <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="17">
+        <v>45913</v>
+      </c>
+      <c r="M12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="26"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="19"/>
@@ -1958,43 +2026,47 @@
     </row>
     <row r="13" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="H13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>89</v>
+      <c r="I13" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="17">
+        <v>45913</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
@@ -2008,37 +2080,41 @@
     </row>
     <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="17">
+        <v>45913</v>
+      </c>
       <c r="M14" s="18" t="s">
         <v>1</v>
       </c>
@@ -2058,37 +2134,41 @@
     </row>
     <row r="15" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="17">
+        <v>45913</v>
+      </c>
       <c r="M15" s="18" t="s">
         <v>1</v>
       </c>
@@ -2108,37 +2188,41 @@
     </row>
     <row r="16" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="17">
+        <v>45913</v>
+      </c>
       <c r="M16" s="18" t="s">
         <v>1</v>
       </c>
@@ -2158,37 +2242,41 @@
     </row>
     <row r="17" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="17">
+        <v>45913</v>
+      </c>
       <c r="M17" s="18" t="s">
         <v>1</v>
       </c>
@@ -2208,37 +2296,41 @@
     </row>
     <row r="18" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>95</v>
+        <v>46</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="17">
+        <v>45913</v>
+      </c>
       <c r="M18" s="18" t="s">
         <v>1</v>
       </c>
@@ -2256,89 +2348,97 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
     </row>
-    <row r="19" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="13" t="s">
+    <row r="19" spans="1:26" s="35" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A19" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="K19" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="32">
+        <v>45913</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="33"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+    </row>
+    <row r="20" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-    </row>
-    <row r="20" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="B20" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="17">
+        <v>45913</v>
+      </c>
       <c r="M20" s="18" t="s">
         <v>1</v>
       </c>
@@ -2358,37 +2458,41 @@
     </row>
     <row r="21" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="17">
+        <v>45913</v>
+      </c>
       <c r="M21" s="18" t="s">
         <v>1</v>
       </c>
@@ -2406,39 +2510,43 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
     </row>
-    <row r="22" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="17">
+        <v>45913</v>
+      </c>
       <c r="M22" s="18" t="s">
         <v>1</v>
       </c>
@@ -2456,89 +2564,97 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
     </row>
-    <row r="23" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:26" s="35" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="32">
+        <v>45913</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="33"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+    </row>
+    <row r="24" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-    </row>
-    <row r="24" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="15" t="s">
+      <c r="J24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="17"/>
+      <c r="L24" s="17">
+        <v>45913</v>
+      </c>
       <c r="M24" s="18" t="s">
         <v>1</v>
       </c>
@@ -2556,89 +2672,97 @@
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
     </row>
-    <row r="25" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" s="35" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="32">
+        <v>45913</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="33"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+    </row>
+    <row r="26" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="J26" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="18"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-    </row>
-    <row r="26" spans="1:26" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="17"/>
+      <c r="K26" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="17">
+        <v>45913</v>
+      </c>
       <c r="M26" s="18" t="s">
         <v>1</v>
       </c>
@@ -2658,37 +2782,41 @@
     </row>
     <row r="27" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="17"/>
+      <c r="K27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" s="17">
+        <v>45913</v>
+      </c>
       <c r="M27" s="18" t="s">
         <v>1</v>
       </c>
@@ -2706,44 +2834,52 @@
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
     </row>
-    <row r="28" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G28" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="16" t="s">
+      <c r="K28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="17">
+        <v>45913</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N28" s="18"/>
-      <c r="O28" s="15"/>
+      <c r="O28" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="P28" s="15"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
@@ -2756,45 +2892,23 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
     </row>
-    <row r="29" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" s="18"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="19"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
@@ -8378,34 +8492,7 @@
       <c r="Y228" s="19"/>
       <c r="Z228" s="19"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="19"/>
-      <c r="B229" s="22"/>
-      <c r="C229" s="23"/>
-      <c r="D229" s="23"/>
-      <c r="E229" s="23"/>
-      <c r="F229" s="23"/>
-      <c r="G229" s="23"/>
-      <c r="H229" s="24"/>
-      <c r="I229" s="25"/>
-      <c r="J229" s="25"/>
-      <c r="K229" s="25"/>
-      <c r="L229" s="23"/>
-      <c r="M229" s="23"/>
-      <c r="N229" s="23"/>
-      <c r="O229" s="23"/>
-      <c r="P229" s="19"/>
-      <c r="Q229" s="19"/>
-      <c r="R229" s="19"/>
-      <c r="S229" s="19"/>
-      <c r="T229" s="19"/>
-      <c r="U229" s="19"/>
-      <c r="V229" s="19"/>
-      <c r="W229" s="19"/>
-      <c r="X229" s="19"/>
-      <c r="Y229" s="19"/>
-      <c r="Z229" s="19"/>
-    </row>
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9185,14 +9272,13 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C30:F103" xr:uid="{677BEDE7-1E6B-409C-8FA2-6B74431978B1}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C29:F102" xr:uid="{677BEDE7-1E6B-409C-8FA2-6B74431978B1}">
       <formula1>"Open,On-Going,Fixed,Verified,Released,Cloesed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M9:M29" xr:uid="{A11D220B-80E7-4B73-B3FA-7F254E2C39E2}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M9:M28" xr:uid="{A11D220B-80E7-4B73-B3FA-7F254E2C39E2}">
       <formula1>"Pass,Fail,N/A,Fixed,Reject,Reopen,Close"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yona\QA\구직\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9487F80-EF98-4930-846E-32EFA9B48DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFFD945-41B6-4841-80AF-178D2AA6C2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71C97345-8A3D-42C4-B27F-751A04A36C73}"/>
   </bookViews>
@@ -237,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{C8FD6007-D4D8-4B1E-85E3-68FEBB5BE5C5}">
+    <comment ref="Q8" authorId="0" shapeId="0" xr:uid="{C8FD6007-D4D8-4B1E-85E3-68FEBB5BE5C5}">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="120">
   <si>
     <t>테스트 진행율</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -394,9 +394,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사전조건(Pre-condition)</t>
-  </si>
-  <si>
     <t>실행행순서(Step)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -434,94 +431,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기존에 등록되지 않는 ID 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TC002</t>
   </si>
   <si>
-    <t>기등록 ID 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존에 등록된 ID 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
     <t>TC004</t>
   </si>
   <si>
-    <t>유효한 ID 입력
-(생성규칙 충족 - 영문만)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영문으로만 이루어진 ID 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TC005</t>
   </si>
   <si>
-    <t>유효한 ID 입력
-(생성규칙 충족 - 영문,숫자 조합)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영문과 숫자의 조합으로 이루어진 ID 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TC006</t>
   </si>
   <si>
-    <t>비유효한 ID 입력
-(생성규칙 미충족 - 숫자만)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자만으로 이루어진 ID 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TC007</t>
   </si>
   <si>
-    <t>비유효한 ID 입력
-(생성규칙 미충족 - 특수문자 포함)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수문자가 포함된 ID 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TC008</t>
   </si>
   <si>
-    <t>비유효한 ID 입력
-(생성규칙 미충족 - 글자수 미달)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TC009</t>
   </si>
   <si>
-    <t>비유효한 ID 입력
-(생성규칙 미충족 - 글자수 초과)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TC010</t>
-  </si>
-  <si>
-    <t>ID 미입력
-(Null값)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
@@ -531,313 +465,352 @@
     <t>TC011</t>
   </si>
   <si>
-    <t>영문, 숫자, 특수문자의 모든 조합으로 이루어진 PW 입력값 준비</t>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>새로고침시 데이터 상태</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 완료 화면으로 전환됨</t>
+    <t>1. 임의의 항목에 임의의 값 입력
+2. 페이지 새로고침 실행(F5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TC012</t>
-  </si>
-  <si>
-    <t>TC013</t>
-  </si>
-  <si>
-    <t>비유효한 PW 입력
-(생성규칙 미충족 - 사용불가 특수문자 포함)</t>
+    <t>입력했던 값이 그대로 표시됨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사용불가한 특수문자가 포함된 PW 입력값 준비</t>
+    <t>로그인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 비밀번호 입력창에 "testpw12&amp;-"입력
-2. 비밀번호 확인 입력창에 "testpw12&amp;-"입력
+    <t>메인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑몰웹사이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력했던 값이 모두 초기화됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16자리까지만 입력되고 17자리부터는 더 이상 입력되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tes1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하단 메시지 표시) tes1는 사용 가능한 아이디입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하단 메시지 표시) test는 이미 사용중인 아이디입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하단 메시지 표시) testabcdefghijkl는 사용 가능한 아이디입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하단 메시지 표시) testab1234567890는 사용 가능한 아이디입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testab1234567890</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testabcdefghijkl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tes1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test123@</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Te1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testab12345678900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하단 메시지 표시) 대문자/공백/특수문자가 포함되었거나, 숫자로 시작 또는 숫자로만 이루어진 아이디는 사용할 수 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하단 메시지 표시) 아이디는 영문소문자 또는 숫자 4~16자로 입력해 주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하단 메시지 표시) 아이디를 입력해 주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(가입완료 화면 메시지 표시) 회원가입이 완료 되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(alert 메시지 표시) 비밀번호 입력 조건을 다시 한번 확인해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하단 메시지 표시) 비밀번호가 일치하지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(alert 메시지 표시) 비밀번호 항목은 필수 입력값입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpw12&amp;-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test01@</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpw0123456789#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test12#$
+Test12#$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpw12#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 아이디에 테스트 데이터 입력
+2. 포커스 이동</t>
+  </si>
+  <si>
+    <t>1. 비밀번호에 테스트 데이터 입력
+2. 비밀번호 확인에 테스트 데이터 입력
+3. 나머지 항목에 임의의 값 입력
+4. 회원가입 버튼 클릭</t>
+  </si>
+  <si>
+    <t>1. 비밀번호에 테스트 데이터 입력
+2. 비밀번호 확인에 테스트 데이터 입력</t>
+  </si>
+  <si>
+    <t>1. 비밀번호에 첫번째 테스트 데이터 입력
+2. 비밀번호 확인에 두번째 테스트 데이터 입력
+3. 포커스 이동</t>
+  </si>
+  <si>
+    <t>16자, 영문소문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 미입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자수 초과 ID 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자수 미달 ID 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비유효 ID 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효 ID 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 아이디 미입력
+2. 포커스 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 비밀번호 미입력
+2. 비밀번호 확인 미입력
 3. 나머지 항목에 임의의 값 입력
 4. 회원가입 버튼 클릭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TC014</t>
-  </si>
-  <si>
-    <t>비유효한 PW 입력
-(생성규칙 미충족 - 글자수 미달)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC015</t>
-  </si>
-  <si>
-    <t>비유효한 PW 입력
-(생성규칙 미충족 - 글자수 초과)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC016</t>
-  </si>
-  <si>
-    <t>비유효한 PW 입력
-(동일한 문자의 연속)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나의 문자로만 이루어진 PW 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 비밀번호 입력창에 "aaaaaaaaa"입력
-2. 비밀번호 확인 입력창에 "aaaaaaaaa"입력
+    <t>1. 비밀번호에 테스트 데이터 입력
+2. 비밀번호 확인 미입력
 3. 나머지 항목에 임의의 값 입력
 4. 회원가입 버튼 클릭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TC017</t>
-  </si>
-  <si>
-    <t>동일하지 않은 PW 입력</t>
+    <t>Test12#$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>생성규칙을 충족하는 두 개의 PW 입력값 준비</t>
+    <t>유효 PW 입력
+(3가지 이상 조합)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TC018</t>
-  </si>
-  <si>
-    <t>PW 미입력
-(Null값)</t>
+    <t>비유효 PW 입력
+(3가지 미만 조합)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 비밀번호 입력창 미입력
-2. 비밀번호 확인 입력창 미입력
-3. 나머지 항목에 임의의 값 입력
-4. 회원가입 버튼 클릭</t>
+    <t>TESTPW0123456789</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TC019</t>
-  </si>
-  <si>
-    <t>PW 확인 미입력
-(Null값)</t>
+    <t>비유효 PW 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>생성규칙을 충족하는 PW 입력값 준비</t>
+    <t>글자수 미달 PW 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 비밀번호 입력창에 "testpw12#"입력
-2. 비밀번호 확인 입력창 미입력
-3. 나머지 항목에 임의의 값 입력
-4. 회원가입 버튼 클릭</t>
+    <t>글자수 초과 PW 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TC020</t>
-  </si>
-  <si>
-    <t>새로고침시 데이터 상태</t>
+    <t>동일한 문자의 연속</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 임의의 항목에 임의의 값 입력
-2. 페이지 새로고침 실행(F5)</t>
+    <t>aaaaaaaa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>입력했던 값이 그대로 표시됨</t>
+    <t>7자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하단에 ‘{입력값}는 사용 가능한 아이디입니다.’ 라는 메시지가 표시됨</t>
+    <t>17자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 아이디 입력창에 "tes1"입력
-2. 포커스 이동</t>
+    <t>일치하지 않는 PW 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 아이디 입력창에 "test"입력
-2. 포커스 이동</t>
+    <t>일부 Null값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하단에 ‘{입력값}는 이미 사용중인 아이디입니다.’ 라는 메시지가 표시됨</t>
+    <t>PW 미입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 아이디 입력창에 "testab1234567890"입력
-2. 포커스 이동</t>
+    <t>PW 확인 미입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 아이디 입력창에 "testabcdefghijkl"입력
-2. 포커스 이동</t>
+    <t>데이터 조건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 아이디 입력창에 "1234"입력
-2. 포커스 이동</t>
+    <t>16자, 영문소문자+숫자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 아이디 입력창에 "test123@"입력
-2. 포커스 이동</t>
+    <t>4자, 숫자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4자 미만의 ID 입력값 준비</t>
+    <t>4자, 영문대문자+소문자+숫자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 아이디 입력창에 "te1"입력
-2. 포커스 이동</t>
+    <t>8자, 영문소문자+숫자+특수문자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16자 초과의 ID 입력값 준비</t>
+    <t>3자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 아이디 입력창에 "testab12345678900"입력</t>
+    <t>8자, 영문대문자+소문자+숫자+특수문자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하단에 ‘아이디를 입력해 주세요.’ 라는 메시지가 표시됨</t>
+    <t>16자, 영문대문자+숫자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하단에 ‘영문소문자 또는 숫자 4~16자로 입력해 주세요.’ 라는 메시지가 표시됨</t>
+    <t>10자, 영문소문자+숫자+사용불가 특수문자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하단에 ‘대문자/공백/특수문자가 포함되었거나, 숫자로 시작 또는 숫자로만 이루어진 아이디는 사용할 수 없습니다.’ 라는 메시지가 표시됨</t>
+    <t>중복 ID 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비유효한 ID 입력
-(생성규칙 미충족 - 대문자 포함)</t>
+    <t>기존에 이미 등록된 ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>영문 대문자가 포함된 ID 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 아이디 입력창에 "Tes1"입력
-2. 포커스 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8자 미만의 PW 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16자 초과의 PW 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 비밀번호 입력창에 "test12#$"입력
-2. 비밀번호 확인 입력창에 "test12#$"입력
-3. 나머지 항목에 임의의 값 입력
-4. 회원가입 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비유효한 PW 입력
-(생성규칙 미충족 - 3가지 미만 조합)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영문 대문자, 숫자의 조합으로만 이루어진 PW 입력값 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 비밀번호 입력창에 "TESTPW01234567890"입력
-2. 비밀번호 확인 입력창에 "TESTPW01234567890"입력
-3. 나머지 항목에 임의의 값 입력
-4. 회원가입 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 비밀번호 입력창에 "test01@"입력
-2. 비밀번호 확인 입력창에 "test01@"입력
-3. 나머지 항목에 임의의 값 입력
-4. 회원가입 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 비밀번호 입력창에 "testpw0123456789#"입력
-2. 비밀번호 확인 입력창에 "testpw0123456789#"입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 아이디 입력창 미입력
-2. 포커스 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 비밀번호 입력창에 "test12#$"입력
-2. 비밀번호 확인 입력창에 "Test12#$"입력
-3. 포커스 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하단에 '비밀번호가 일치하지 않습니다.' 라는 메시지가 표시됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효한 PW 입력
-(생성규칙 충족 - 3가지 이상 조합)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼핑몰웹사이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이연화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력했던 값이 모두 초기화됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16자리까지만 입력되고 17자리부터는 더 이상 입력되지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>'비밀번호 입력 조건을 다시 한번 확인해주세요.' 라는 안내창이 노출됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>'비밀번호 항목은 필수 입력값입니다.' 라는 안내창이 노출됨</t>
+    <t>기존에 등록되어 있지 않은 ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1180,33 +1153,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1230,15 +1176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>43544</xdr:colOff>
+      <xdr:colOff>43543</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>31698</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1367118</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:rowOff>170007</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1253,8 +1199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7136868" y="31698"/>
-          <a:ext cx="4293132" cy="1279389"/>
+          <a:off x="5624072" y="33618"/>
+          <a:ext cx="4293133" cy="1279389"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1678,10 +1624,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:AA1008"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -1690,65 +1636,66 @@
     <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="6" width="8.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.69921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="58.19921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24" style="1" customWidth="1"/>
-    <col min="16" max="26" width="11.3984375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="13" style="1"/>
+    <col min="7" max="7" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="61" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24" style="1" customWidth="1"/>
+    <col min="17" max="27" width="11.3984375" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <f>COUNTA(M9:M28)/COUNTA(A9:A28)</f>
+        <f>COUNTA(N9:N28)/COUNTA(A9:A28)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <f>COUNTIF(M9:M28, "Pass")</f>
+        <f>COUNTIF(N9:N28, "Pass")</f>
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5">
-        <f>COUNTIF(M10:M29, "Fail")</f>
+        <f>COUNTIF(N10:N29, "Fail")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <f>COUNTIF(M11:M30, "N/A")</f>
+        <f>COUNTIF(N11:N30, "N/A")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <f>COUNTIF(M9:M28, "Pass")/(COUNTA(A9:A28)-COUNTIF(M9:M28, "Close"))</f>
+        <f>COUNTIF(N9:N28, "Pass")/(COUNTA(A9:A28)-COUNTIF(N9:N28, "Close"))</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1771,33 +1718,35 @@
         <v>11</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="P8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="Q8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -1807,51 +1756,54 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
-    </row>
-    <row r="9" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="H9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M9" s="18" t="s">
+      <c r="K9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="15"/>
+      <c r="O9" s="18"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -1861,51 +1813,54 @@
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
-    </row>
-    <row r="10" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA9" s="19"/>
+    </row>
+    <row r="10" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="15"/>
+      <c r="O10" s="18"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
@@ -1915,51 +1870,54 @@
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
-    </row>
-    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA10" s="19"/>
+    </row>
+    <row r="11" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M11" s="18" t="s">
+      <c r="I11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="15"/>
+      <c r="O11" s="18"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
@@ -1969,51 +1927,54 @@
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
-    </row>
-    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA11" s="19"/>
+    </row>
+    <row r="12" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M12" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="15"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
@@ -2023,51 +1984,54 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
-    </row>
-    <row r="13" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA12" s="19"/>
+    </row>
+    <row r="13" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M13" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1234</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="15"/>
+      <c r="O13" s="18"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
@@ -2077,51 +2041,54 @@
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
-    </row>
-    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA13" s="19"/>
+    </row>
+    <row r="14" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M14" s="18" t="s">
+      <c r="I14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="15"/>
+      <c r="O14" s="18"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
@@ -2131,51 +2098,54 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
-    </row>
-    <row r="15" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA14" s="19"/>
+    </row>
+    <row r="15" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M15" s="18" t="s">
+      <c r="I15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="15"/>
+      <c r="O15" s="18"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
@@ -2185,51 +2155,54 @@
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
-    </row>
-    <row r="16" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA15" s="19"/>
+    </row>
+    <row r="16" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M16" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="15"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
@@ -2239,51 +2212,54 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA16" s="19"/>
+    </row>
+    <row r="17" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M17" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N17" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="15"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
@@ -2293,51 +2269,54 @@
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA17" s="19"/>
+    </row>
+    <row r="18" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M18" s="18" t="s">
+      <c r="K18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="15"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
@@ -2347,105 +2326,111 @@
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
-    </row>
-    <row r="19" spans="1:26" s="35" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A19" s="27" t="s">
+      <c r="AA18" s="19"/>
+    </row>
+    <row r="19" spans="1:27" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="30" t="s">
+      <c r="G19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="26"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+    </row>
+    <row r="20" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="31" t="s">
+      <c r="C20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="32">
-        <v>45913</v>
-      </c>
-      <c r="M19" s="33" t="s">
+      <c r="M20" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-    </row>
-    <row r="20" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="15"/>
+      <c r="O20" s="18"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="19"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
@@ -2455,51 +2440,54 @@
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
-    </row>
-    <row r="21" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA20" s="19"/>
+    </row>
+    <row r="21" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M21" s="18" t="s">
+      <c r="I21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N21" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="15"/>
+      <c r="O21" s="18"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="19"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
@@ -2509,51 +2497,54 @@
       <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
-    </row>
-    <row r="22" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="AA21" s="19"/>
+    </row>
+    <row r="22" spans="1:27" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="15"/>
+      <c r="O22" s="18"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
@@ -2563,105 +2554,111 @@
       <c r="X22" s="19"/>
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" s="35" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="30" t="s">
+      <c r="AA22" s="19"/>
+    </row>
+    <row r="23" spans="1:27" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+    </row>
+    <row r="24" spans="1:27" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J23" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="32">
-        <v>45913</v>
-      </c>
-      <c r="M23" s="33" t="s">
+      <c r="I24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N24" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N23" s="33"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-    </row>
-    <row r="24" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="15"/>
+      <c r="O24" s="26"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="19"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
@@ -2671,105 +2668,111 @@
       <c r="X24" s="19"/>
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
-    </row>
-    <row r="25" spans="1:26" s="35" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="AA24" s="19"/>
+    </row>
+    <row r="25" spans="1:27" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+    </row>
+    <row r="26" spans="1:27" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" s="32">
-        <v>45913</v>
-      </c>
-      <c r="M25" s="33" t="s">
+      <c r="H26" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N26" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-    </row>
-    <row r="26" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L26" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N26" s="18"/>
-      <c r="O26" s="15"/>
+      <c r="O26" s="18"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="15"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
@@ -2779,51 +2782,54 @@
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
-    </row>
-    <row r="27" spans="1:26" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="AA26" s="19"/>
+    </row>
+    <row r="27" spans="1:27" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="15" t="s">
+      <c r="H27" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L27" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M27" s="18" t="s">
+      <c r="L27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N27" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N27" s="18"/>
-      <c r="O27" s="15"/>
+      <c r="O27" s="18"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
@@ -2833,55 +2839,58 @@
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
-    </row>
-    <row r="28" spans="1:26" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="AA27" s="19"/>
+    </row>
+    <row r="28" spans="1:27" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="17">
-        <v>45913</v>
-      </c>
-      <c r="M28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="17">
+        <v>45914</v>
+      </c>
+      <c r="N28" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N28" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="19"/>
+      <c r="O28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="15"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
@@ -2891,8 +2900,9 @@
       <c r="X28" s="19"/>
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA28" s="19"/>
+    </row>
+    <row r="29" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19"/>
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
@@ -2901,14 +2911,14 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="23"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
-      <c r="P29" s="19"/>
+      <c r="P29" s="23"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
@@ -2919,8 +2929,9 @@
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA29" s="19"/>
+    </row>
+    <row r="30" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -2929,14 +2940,14 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
-      <c r="P30" s="19"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
@@ -2947,8 +2958,9 @@
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA30" s="19"/>
+    </row>
+    <row r="31" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -2957,14 +2969,14 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="25"/>
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
-      <c r="P31" s="19"/>
+      <c r="P31" s="23"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
@@ -2975,8 +2987,9 @@
       <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA31" s="19"/>
+    </row>
+    <row r="32" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="19"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -2985,14 +2998,14 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="25"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
-      <c r="P32" s="19"/>
+      <c r="P32" s="23"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
@@ -3003,8 +3016,9 @@
       <c r="X32" s="19"/>
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
-    </row>
-    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA32" s="19"/>
+    </row>
+    <row r="33" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="19"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
@@ -3013,14 +3027,14 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="23"/>
+      <c r="L33" s="25"/>
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
-      <c r="P33" s="19"/>
+      <c r="P33" s="23"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
@@ -3031,8 +3045,9 @@
       <c r="X33" s="19"/>
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
-    </row>
-    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA33" s="19"/>
+    </row>
+    <row r="34" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="19"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
@@ -3041,14 +3056,14 @@
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="23"/>
+      <c r="L34" s="25"/>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
-      <c r="P34" s="19"/>
+      <c r="P34" s="23"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
@@ -3059,8 +3074,9 @@
       <c r="X34" s="19"/>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
-    </row>
-    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA34" s="19"/>
+    </row>
+    <row r="35" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="19"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
@@ -3069,14 +3085,14 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
-      <c r="L35" s="23"/>
+      <c r="L35" s="25"/>
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
-      <c r="P35" s="19"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19"/>
@@ -3087,8 +3103,9 @@
       <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
-    </row>
-    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA35" s="19"/>
+    </row>
+    <row r="36" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
@@ -3097,14 +3114,14 @@
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
-      <c r="L36" s="23"/>
+      <c r="L36" s="25"/>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
-      <c r="P36" s="19"/>
+      <c r="P36" s="23"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
@@ -3115,8 +3132,9 @@
       <c r="X36" s="19"/>
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
-    </row>
-    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA36" s="19"/>
+    </row>
+    <row r="37" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="19"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
@@ -3125,14 +3143,14 @@
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="23"/>
+      <c r="L37" s="25"/>
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
-      <c r="P37" s="19"/>
+      <c r="P37" s="23"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
       <c r="S37" s="19"/>
@@ -3143,8 +3161,9 @@
       <c r="X37" s="19"/>
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
-    </row>
-    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA37" s="19"/>
+    </row>
+    <row r="38" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="19"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
@@ -3153,14 +3172,14 @@
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="25"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="23"/>
+      <c r="L38" s="25"/>
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
       <c r="O38" s="23"/>
-      <c r="P38" s="19"/>
+      <c r="P38" s="23"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
       <c r="S38" s="19"/>
@@ -3171,8 +3190,9 @@
       <c r="X38" s="19"/>
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
-    </row>
-    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA38" s="19"/>
+    </row>
+    <row r="39" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="19"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
@@ -3181,14 +3201,14 @@
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="25"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="23"/>
+      <c r="L39" s="25"/>
       <c r="M39" s="23"/>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
-      <c r="P39" s="19"/>
+      <c r="P39" s="23"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
@@ -3199,8 +3219,9 @@
       <c r="X39" s="19"/>
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
-    </row>
-    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA39" s="19"/>
+    </row>
+    <row r="40" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
@@ -3209,14 +3230,14 @@
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
-      <c r="L40" s="23"/>
+      <c r="L40" s="25"/>
       <c r="M40" s="23"/>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
-      <c r="P40" s="19"/>
+      <c r="P40" s="23"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
@@ -3227,8 +3248,9 @@
       <c r="X40" s="19"/>
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
-    </row>
-    <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA40" s="19"/>
+    </row>
+    <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="19"/>
       <c r="B41" s="22"/>
       <c r="C41" s="23"/>
@@ -3237,14 +3259,14 @@
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="25"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="23"/>
+      <c r="L41" s="25"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
-      <c r="P41" s="19"/>
+      <c r="P41" s="23"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
@@ -3255,8 +3277,9 @@
       <c r="X41" s="19"/>
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
-    </row>
-    <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA41" s="19"/>
+    </row>
+    <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="19"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
@@ -3265,14 +3288,14 @@
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="23"/>
+      <c r="L42" s="25"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
       <c r="O42" s="23"/>
-      <c r="P42" s="19"/>
+      <c r="P42" s="23"/>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -3283,8 +3306,9 @@
       <c r="X42" s="19"/>
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
-    </row>
-    <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA42" s="19"/>
+    </row>
+    <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="19"/>
       <c r="B43" s="22"/>
       <c r="C43" s="23"/>
@@ -3293,14 +3317,14 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="23"/>
+      <c r="L43" s="25"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
-      <c r="P43" s="19"/>
+      <c r="P43" s="23"/>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
@@ -3311,8 +3335,9 @@
       <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
-    </row>
-    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA43" s="19"/>
+    </row>
+    <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="19"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23"/>
@@ -3321,14 +3346,14 @@
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
+      <c r="I44" s="24"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="23"/>
+      <c r="L44" s="25"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
-      <c r="P44" s="19"/>
+      <c r="P44" s="23"/>
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
@@ -3339,8 +3364,9 @@
       <c r="X44" s="19"/>
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
-    </row>
-    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA44" s="19"/>
+    </row>
+    <row r="45" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23"/>
@@ -3349,14 +3375,14 @@
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="25"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
-      <c r="L45" s="23"/>
+      <c r="L45" s="25"/>
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
       <c r="O45" s="23"/>
-      <c r="P45" s="19"/>
+      <c r="P45" s="23"/>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
@@ -3367,8 +3393,9 @@
       <c r="X45" s="19"/>
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
-    </row>
-    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA45" s="19"/>
+    </row>
+    <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="19"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
@@ -3377,14 +3404,14 @@
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="24"/>
-      <c r="I46" s="25"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
-      <c r="L46" s="23"/>
+      <c r="L46" s="25"/>
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
       <c r="O46" s="23"/>
-      <c r="P46" s="19"/>
+      <c r="P46" s="23"/>
       <c r="Q46" s="19"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
@@ -3395,8 +3422,9 @@
       <c r="X46" s="19"/>
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
-    </row>
-    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA46" s="19"/>
+    </row>
+    <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="19"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
@@ -3405,14 +3433,14 @@
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="24"/>
-      <c r="I47" s="25"/>
+      <c r="I47" s="24"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
-      <c r="L47" s="23"/>
+      <c r="L47" s="25"/>
       <c r="M47" s="23"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
-      <c r="P47" s="19"/>
+      <c r="P47" s="23"/>
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
@@ -3423,8 +3451,9 @@
       <c r="X47" s="19"/>
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
-    </row>
-    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA47" s="19"/>
+    </row>
+    <row r="48" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="19"/>
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
@@ -3433,14 +3462,14 @@
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="25"/>
+      <c r="I48" s="24"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
-      <c r="L48" s="23"/>
+      <c r="L48" s="25"/>
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
-      <c r="P48" s="19"/>
+      <c r="P48" s="23"/>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
@@ -3451,8 +3480,9 @@
       <c r="X48" s="19"/>
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
-    </row>
-    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA48" s="19"/>
+    </row>
+    <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="19"/>
       <c r="B49" s="22"/>
       <c r="C49" s="23"/>
@@ -3461,14 +3491,14 @@
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="25"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="23"/>
+      <c r="L49" s="25"/>
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
-      <c r="P49" s="19"/>
+      <c r="P49" s="23"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
@@ -3479,8 +3509,9 @@
       <c r="X49" s="19"/>
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
-    </row>
-    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA49" s="19"/>
+    </row>
+    <row r="50" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="19"/>
       <c r="B50" s="22"/>
       <c r="C50" s="23"/>
@@ -3489,14 +3520,14 @@
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="24"/>
-      <c r="I50" s="25"/>
+      <c r="I50" s="24"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="23"/>
+      <c r="L50" s="25"/>
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
-      <c r="P50" s="19"/>
+      <c r="P50" s="23"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
@@ -3507,8 +3538,9 @@
       <c r="X50" s="19"/>
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
-    </row>
-    <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA50" s="19"/>
+    </row>
+    <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="22"/>
       <c r="C51" s="23"/>
@@ -3517,14 +3549,14 @@
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="24"/>
-      <c r="I51" s="25"/>
+      <c r="I51" s="24"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
-      <c r="L51" s="23"/>
+      <c r="L51" s="25"/>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
-      <c r="P51" s="19"/>
+      <c r="P51" s="23"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
@@ -3535,8 +3567,9 @@
       <c r="X51" s="19"/>
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
-    </row>
-    <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA51" s="19"/>
+    </row>
+    <row r="52" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="22"/>
       <c r="C52" s="23"/>
@@ -3545,14 +3578,14 @@
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
       <c r="H52" s="24"/>
-      <c r="I52" s="25"/>
+      <c r="I52" s="24"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
-      <c r="L52" s="23"/>
+      <c r="L52" s="25"/>
       <c r="M52" s="23"/>
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
-      <c r="P52" s="19"/>
+      <c r="P52" s="23"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
@@ -3563,8 +3596,9 @@
       <c r="X52" s="19"/>
       <c r="Y52" s="19"/>
       <c r="Z52" s="19"/>
-    </row>
-    <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA52" s="19"/>
+    </row>
+    <row r="53" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="19"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
@@ -3573,14 +3607,14 @@
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="24"/>
-      <c r="I53" s="25"/>
+      <c r="I53" s="24"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
-      <c r="L53" s="23"/>
+      <c r="L53" s="25"/>
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
-      <c r="P53" s="19"/>
+      <c r="P53" s="23"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
@@ -3591,8 +3625,9 @@
       <c r="X53" s="19"/>
       <c r="Y53" s="19"/>
       <c r="Z53" s="19"/>
-    </row>
-    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA53" s="19"/>
+    </row>
+    <row r="54" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="19"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
@@ -3601,14 +3636,14 @@
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="24"/>
-      <c r="I54" s="25"/>
+      <c r="I54" s="24"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
-      <c r="L54" s="23"/>
+      <c r="L54" s="25"/>
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
       <c r="O54" s="23"/>
-      <c r="P54" s="19"/>
+      <c r="P54" s="23"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
@@ -3619,8 +3654,9 @@
       <c r="X54" s="19"/>
       <c r="Y54" s="19"/>
       <c r="Z54" s="19"/>
-    </row>
-    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA54" s="19"/>
+    </row>
+    <row r="55" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="19"/>
       <c r="B55" s="22"/>
       <c r="C55" s="23"/>
@@ -3629,14 +3665,14 @@
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="24"/>
-      <c r="I55" s="25"/>
+      <c r="I55" s="24"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
-      <c r="L55" s="23"/>
+      <c r="L55" s="25"/>
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
       <c r="O55" s="23"/>
-      <c r="P55" s="19"/>
+      <c r="P55" s="23"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
       <c r="S55" s="19"/>
@@ -3647,8 +3683,9 @@
       <c r="X55" s="19"/>
       <c r="Y55" s="19"/>
       <c r="Z55" s="19"/>
-    </row>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA55" s="19"/>
+    </row>
+    <row r="56" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="19"/>
       <c r="B56" s="22"/>
       <c r="C56" s="23"/>
@@ -3657,14 +3694,14 @@
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="24"/>
-      <c r="I56" s="25"/>
+      <c r="I56" s="24"/>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
-      <c r="L56" s="23"/>
+      <c r="L56" s="25"/>
       <c r="M56" s="23"/>
       <c r="N56" s="23"/>
       <c r="O56" s="23"/>
-      <c r="P56" s="19"/>
+      <c r="P56" s="23"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
       <c r="S56" s="19"/>
@@ -3675,8 +3712,9 @@
       <c r="X56" s="19"/>
       <c r="Y56" s="19"/>
       <c r="Z56" s="19"/>
-    </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA56" s="19"/>
+    </row>
+    <row r="57" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="19"/>
       <c r="B57" s="22"/>
       <c r="C57" s="23"/>
@@ -3685,14 +3723,14 @@
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="24"/>
-      <c r="I57" s="25"/>
+      <c r="I57" s="24"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
-      <c r="L57" s="23"/>
+      <c r="L57" s="25"/>
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
-      <c r="P57" s="19"/>
+      <c r="P57" s="23"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
@@ -3703,8 +3741,9 @@
       <c r="X57" s="19"/>
       <c r="Y57" s="19"/>
       <c r="Z57" s="19"/>
-    </row>
-    <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA57" s="19"/>
+    </row>
+    <row r="58" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="19"/>
       <c r="B58" s="22"/>
       <c r="C58" s="23"/>
@@ -3713,14 +3752,14 @@
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="24"/>
-      <c r="I58" s="25"/>
+      <c r="I58" s="24"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
-      <c r="L58" s="23"/>
+      <c r="L58" s="25"/>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
       <c r="O58" s="23"/>
-      <c r="P58" s="19"/>
+      <c r="P58" s="23"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
       <c r="S58" s="19"/>
@@ -3731,8 +3770,9 @@
       <c r="X58" s="19"/>
       <c r="Y58" s="19"/>
       <c r="Z58" s="19"/>
-    </row>
-    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA58" s="19"/>
+    </row>
+    <row r="59" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="19"/>
       <c r="B59" s="22"/>
       <c r="C59" s="23"/>
@@ -3741,14 +3781,14 @@
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="24"/>
-      <c r="I59" s="25"/>
+      <c r="I59" s="24"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="23"/>
+      <c r="L59" s="25"/>
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
       <c r="O59" s="23"/>
-      <c r="P59" s="19"/>
+      <c r="P59" s="23"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
       <c r="S59" s="19"/>
@@ -3759,8 +3799,9 @@
       <c r="X59" s="19"/>
       <c r="Y59" s="19"/>
       <c r="Z59" s="19"/>
-    </row>
-    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA59" s="19"/>
+    </row>
+    <row r="60" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="19"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
@@ -3769,14 +3810,14 @@
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="24"/>
-      <c r="I60" s="25"/>
+      <c r="I60" s="24"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="23"/>
+      <c r="L60" s="25"/>
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
       <c r="O60" s="23"/>
-      <c r="P60" s="19"/>
+      <c r="P60" s="23"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="19"/>
@@ -3787,8 +3828,9 @@
       <c r="X60" s="19"/>
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
-    </row>
-    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA60" s="19"/>
+    </row>
+    <row r="61" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="19"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
@@ -3797,14 +3839,14 @@
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="24"/>
-      <c r="I61" s="25"/>
+      <c r="I61" s="24"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
-      <c r="L61" s="23"/>
+      <c r="L61" s="25"/>
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
       <c r="O61" s="23"/>
-      <c r="P61" s="19"/>
+      <c r="P61" s="23"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
       <c r="S61" s="19"/>
@@ -3815,8 +3857,9 @@
       <c r="X61" s="19"/>
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
-    </row>
-    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA61" s="19"/>
+    </row>
+    <row r="62" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="19"/>
       <c r="B62" s="22"/>
       <c r="C62" s="23"/>
@@ -3825,14 +3868,14 @@
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="24"/>
-      <c r="I62" s="25"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
-      <c r="L62" s="23"/>
+      <c r="L62" s="25"/>
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
       <c r="O62" s="23"/>
-      <c r="P62" s="19"/>
+      <c r="P62" s="23"/>
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
       <c r="S62" s="19"/>
@@ -3843,8 +3886,9 @@
       <c r="X62" s="19"/>
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
-    </row>
-    <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA62" s="19"/>
+    </row>
+    <row r="63" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="19"/>
       <c r="B63" s="22"/>
       <c r="C63" s="23"/>
@@ -3853,14 +3897,14 @@
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="24"/>
-      <c r="I63" s="25"/>
+      <c r="I63" s="24"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
-      <c r="L63" s="23"/>
+      <c r="L63" s="25"/>
       <c r="M63" s="23"/>
       <c r="N63" s="23"/>
       <c r="O63" s="23"/>
-      <c r="P63" s="19"/>
+      <c r="P63" s="23"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
       <c r="S63" s="19"/>
@@ -3871,8 +3915,9 @@
       <c r="X63" s="19"/>
       <c r="Y63" s="19"/>
       <c r="Z63" s="19"/>
-    </row>
-    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA63" s="19"/>
+    </row>
+    <row r="64" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="19"/>
       <c r="B64" s="22"/>
       <c r="C64" s="23"/>
@@ -3881,14 +3926,14 @@
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="24"/>
-      <c r="I64" s="25"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
-      <c r="L64" s="23"/>
+      <c r="L64" s="25"/>
       <c r="M64" s="23"/>
       <c r="N64" s="23"/>
       <c r="O64" s="23"/>
-      <c r="P64" s="19"/>
+      <c r="P64" s="23"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="19"/>
       <c r="S64" s="19"/>
@@ -3899,8 +3944,9 @@
       <c r="X64" s="19"/>
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
-    </row>
-    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA64" s="19"/>
+    </row>
+    <row r="65" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="19"/>
       <c r="B65" s="22"/>
       <c r="C65" s="23"/>
@@ -3909,14 +3955,14 @@
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="24"/>
-      <c r="I65" s="25"/>
+      <c r="I65" s="24"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
-      <c r="L65" s="23"/>
+      <c r="L65" s="25"/>
       <c r="M65" s="23"/>
       <c r="N65" s="23"/>
       <c r="O65" s="23"/>
-      <c r="P65" s="19"/>
+      <c r="P65" s="23"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
       <c r="S65" s="19"/>
@@ -3927,8 +3973,9 @@
       <c r="X65" s="19"/>
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
-    </row>
-    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA65" s="19"/>
+    </row>
+    <row r="66" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="19"/>
       <c r="B66" s="22"/>
       <c r="C66" s="23"/>
@@ -3937,14 +3984,14 @@
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="24"/>
-      <c r="I66" s="25"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
-      <c r="L66" s="23"/>
+      <c r="L66" s="25"/>
       <c r="M66" s="23"/>
       <c r="N66" s="23"/>
       <c r="O66" s="23"/>
-      <c r="P66" s="19"/>
+      <c r="P66" s="23"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
       <c r="S66" s="19"/>
@@ -3955,8 +4002,9 @@
       <c r="X66" s="19"/>
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
-    </row>
-    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA66" s="19"/>
+    </row>
+    <row r="67" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="19"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
@@ -3965,14 +4013,14 @@
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="24"/>
-      <c r="I67" s="25"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="23"/>
+      <c r="L67" s="25"/>
       <c r="M67" s="23"/>
       <c r="N67" s="23"/>
       <c r="O67" s="23"/>
-      <c r="P67" s="19"/>
+      <c r="P67" s="23"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
       <c r="S67" s="19"/>
@@ -3983,8 +4031,9 @@
       <c r="X67" s="19"/>
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
-    </row>
-    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA67" s="19"/>
+    </row>
+    <row r="68" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="19"/>
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
@@ -3993,14 +4042,14 @@
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
       <c r="H68" s="24"/>
-      <c r="I68" s="25"/>
+      <c r="I68" s="24"/>
       <c r="J68" s="25"/>
       <c r="K68" s="25"/>
-      <c r="L68" s="23"/>
+      <c r="L68" s="25"/>
       <c r="M68" s="23"/>
       <c r="N68" s="23"/>
       <c r="O68" s="23"/>
-      <c r="P68" s="19"/>
+      <c r="P68" s="23"/>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
       <c r="S68" s="19"/>
@@ -4011,8 +4060,9 @@
       <c r="X68" s="19"/>
       <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
-    </row>
-    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA68" s="19"/>
+    </row>
+    <row r="69" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="19"/>
       <c r="B69" s="22"/>
       <c r="C69" s="23"/>
@@ -4021,14 +4071,14 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="24"/>
-      <c r="I69" s="25"/>
+      <c r="I69" s="24"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
-      <c r="L69" s="23"/>
+      <c r="L69" s="25"/>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
       <c r="O69" s="23"/>
-      <c r="P69" s="19"/>
+      <c r="P69" s="23"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
       <c r="S69" s="19"/>
@@ -4039,8 +4089,9 @@
       <c r="X69" s="19"/>
       <c r="Y69" s="19"/>
       <c r="Z69" s="19"/>
-    </row>
-    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA69" s="19"/>
+    </row>
+    <row r="70" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="19"/>
       <c r="B70" s="22"/>
       <c r="C70" s="23"/>
@@ -4049,14 +4100,14 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="24"/>
-      <c r="I70" s="25"/>
+      <c r="I70" s="24"/>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
-      <c r="L70" s="23"/>
+      <c r="L70" s="25"/>
       <c r="M70" s="23"/>
       <c r="N70" s="23"/>
       <c r="O70" s="23"/>
-      <c r="P70" s="19"/>
+      <c r="P70" s="23"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
@@ -4067,8 +4118,9 @@
       <c r="X70" s="19"/>
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
-    </row>
-    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA70" s="19"/>
+    </row>
+    <row r="71" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="19"/>
       <c r="B71" s="22"/>
       <c r="C71" s="23"/>
@@ -4077,14 +4129,14 @@
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
       <c r="H71" s="24"/>
-      <c r="I71" s="25"/>
+      <c r="I71" s="24"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
-      <c r="L71" s="23"/>
+      <c r="L71" s="25"/>
       <c r="M71" s="23"/>
       <c r="N71" s="23"/>
       <c r="O71" s="23"/>
-      <c r="P71" s="19"/>
+      <c r="P71" s="23"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
       <c r="S71" s="19"/>
@@ -4095,8 +4147,9 @@
       <c r="X71" s="19"/>
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
-    </row>
-    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA71" s="19"/>
+    </row>
+    <row r="72" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="19"/>
       <c r="B72" s="22"/>
       <c r="C72" s="23"/>
@@ -4105,14 +4158,14 @@
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
       <c r="H72" s="24"/>
-      <c r="I72" s="25"/>
+      <c r="I72" s="24"/>
       <c r="J72" s="25"/>
       <c r="K72" s="25"/>
-      <c r="L72" s="23"/>
+      <c r="L72" s="25"/>
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
-      <c r="P72" s="19"/>
+      <c r="P72" s="23"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
       <c r="S72" s="19"/>
@@ -4123,8 +4176,9 @@
       <c r="X72" s="19"/>
       <c r="Y72" s="19"/>
       <c r="Z72" s="19"/>
-    </row>
-    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA72" s="19"/>
+    </row>
+    <row r="73" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="19"/>
       <c r="B73" s="22"/>
       <c r="C73" s="23"/>
@@ -4133,14 +4187,14 @@
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
       <c r="H73" s="24"/>
-      <c r="I73" s="25"/>
+      <c r="I73" s="24"/>
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
-      <c r="L73" s="23"/>
+      <c r="L73" s="25"/>
       <c r="M73" s="23"/>
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
-      <c r="P73" s="19"/>
+      <c r="P73" s="23"/>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
       <c r="S73" s="19"/>
@@ -4151,8 +4205,9 @@
       <c r="X73" s="19"/>
       <c r="Y73" s="19"/>
       <c r="Z73" s="19"/>
-    </row>
-    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA73" s="19"/>
+    </row>
+    <row r="74" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="19"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
@@ -4161,14 +4216,14 @@
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
       <c r="H74" s="24"/>
-      <c r="I74" s="25"/>
+      <c r="I74" s="24"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
-      <c r="L74" s="23"/>
+      <c r="L74" s="25"/>
       <c r="M74" s="23"/>
       <c r="N74" s="23"/>
       <c r="O74" s="23"/>
-      <c r="P74" s="19"/>
+      <c r="P74" s="23"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="19"/>
       <c r="S74" s="19"/>
@@ -4179,8 +4234,9 @@
       <c r="X74" s="19"/>
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
-    </row>
-    <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA74" s="19"/>
+    </row>
+    <row r="75" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="19"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
@@ -4189,14 +4245,14 @@
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
       <c r="H75" s="24"/>
-      <c r="I75" s="25"/>
+      <c r="I75" s="24"/>
       <c r="J75" s="25"/>
       <c r="K75" s="25"/>
-      <c r="L75" s="23"/>
+      <c r="L75" s="25"/>
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
       <c r="O75" s="23"/>
-      <c r="P75" s="19"/>
+      <c r="P75" s="23"/>
       <c r="Q75" s="19"/>
       <c r="R75" s="19"/>
       <c r="S75" s="19"/>
@@ -4207,8 +4263,9 @@
       <c r="X75" s="19"/>
       <c r="Y75" s="19"/>
       <c r="Z75" s="19"/>
-    </row>
-    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA75" s="19"/>
+    </row>
+    <row r="76" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="19"/>
       <c r="B76" s="22"/>
       <c r="C76" s="23"/>
@@ -4217,14 +4274,14 @@
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
       <c r="H76" s="24"/>
-      <c r="I76" s="25"/>
+      <c r="I76" s="24"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="23"/>
+      <c r="L76" s="25"/>
       <c r="M76" s="23"/>
       <c r="N76" s="23"/>
       <c r="O76" s="23"/>
-      <c r="P76" s="19"/>
+      <c r="P76" s="23"/>
       <c r="Q76" s="19"/>
       <c r="R76" s="19"/>
       <c r="S76" s="19"/>
@@ -4235,8 +4292,9 @@
       <c r="X76" s="19"/>
       <c r="Y76" s="19"/>
       <c r="Z76" s="19"/>
-    </row>
-    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA76" s="19"/>
+    </row>
+    <row r="77" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="19"/>
       <c r="B77" s="22"/>
       <c r="C77" s="23"/>
@@ -4245,14 +4303,14 @@
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
       <c r="H77" s="24"/>
-      <c r="I77" s="25"/>
+      <c r="I77" s="24"/>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
-      <c r="L77" s="23"/>
+      <c r="L77" s="25"/>
       <c r="M77" s="23"/>
       <c r="N77" s="23"/>
       <c r="O77" s="23"/>
-      <c r="P77" s="19"/>
+      <c r="P77" s="23"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
@@ -4263,8 +4321,9 @@
       <c r="X77" s="19"/>
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
-    </row>
-    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA77" s="19"/>
+    </row>
+    <row r="78" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="19"/>
       <c r="B78" s="22"/>
       <c r="C78" s="23"/>
@@ -4273,14 +4332,14 @@
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
       <c r="H78" s="24"/>
-      <c r="I78" s="25"/>
+      <c r="I78" s="24"/>
       <c r="J78" s="25"/>
       <c r="K78" s="25"/>
-      <c r="L78" s="23"/>
+      <c r="L78" s="25"/>
       <c r="M78" s="23"/>
       <c r="N78" s="23"/>
       <c r="O78" s="23"/>
-      <c r="P78" s="19"/>
+      <c r="P78" s="23"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="19"/>
       <c r="S78" s="19"/>
@@ -4291,8 +4350,9 @@
       <c r="X78" s="19"/>
       <c r="Y78" s="19"/>
       <c r="Z78" s="19"/>
-    </row>
-    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA78" s="19"/>
+    </row>
+    <row r="79" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="19"/>
       <c r="B79" s="22"/>
       <c r="C79" s="23"/>
@@ -4301,14 +4361,14 @@
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
       <c r="H79" s="24"/>
-      <c r="I79" s="25"/>
+      <c r="I79" s="24"/>
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
-      <c r="L79" s="23"/>
+      <c r="L79" s="25"/>
       <c r="M79" s="23"/>
       <c r="N79" s="23"/>
       <c r="O79" s="23"/>
-      <c r="P79" s="19"/>
+      <c r="P79" s="23"/>
       <c r="Q79" s="19"/>
       <c r="R79" s="19"/>
       <c r="S79" s="19"/>
@@ -4319,8 +4379,9 @@
       <c r="X79" s="19"/>
       <c r="Y79" s="19"/>
       <c r="Z79" s="19"/>
-    </row>
-    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA79" s="19"/>
+    </row>
+    <row r="80" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="19"/>
       <c r="B80" s="22"/>
       <c r="C80" s="23"/>
@@ -4329,14 +4390,14 @@
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
       <c r="H80" s="24"/>
-      <c r="I80" s="25"/>
+      <c r="I80" s="24"/>
       <c r="J80" s="25"/>
       <c r="K80" s="25"/>
-      <c r="L80" s="23"/>
+      <c r="L80" s="25"/>
       <c r="M80" s="23"/>
       <c r="N80" s="23"/>
       <c r="O80" s="23"/>
-      <c r="P80" s="19"/>
+      <c r="P80" s="23"/>
       <c r="Q80" s="19"/>
       <c r="R80" s="19"/>
       <c r="S80" s="19"/>
@@ -4347,8 +4408,9 @@
       <c r="X80" s="19"/>
       <c r="Y80" s="19"/>
       <c r="Z80" s="19"/>
-    </row>
-    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA80" s="19"/>
+    </row>
+    <row r="81" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="19"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
@@ -4357,14 +4419,14 @@
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
       <c r="H81" s="24"/>
-      <c r="I81" s="25"/>
+      <c r="I81" s="24"/>
       <c r="J81" s="25"/>
       <c r="K81" s="25"/>
-      <c r="L81" s="23"/>
+      <c r="L81" s="25"/>
       <c r="M81" s="23"/>
       <c r="N81" s="23"/>
       <c r="O81" s="23"/>
-      <c r="P81" s="19"/>
+      <c r="P81" s="23"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
       <c r="S81" s="19"/>
@@ -4375,8 +4437,9 @@
       <c r="X81" s="19"/>
       <c r="Y81" s="19"/>
       <c r="Z81" s="19"/>
-    </row>
-    <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA81" s="19"/>
+    </row>
+    <row r="82" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="19"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
@@ -4385,14 +4448,14 @@
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
       <c r="H82" s="24"/>
-      <c r="I82" s="25"/>
+      <c r="I82" s="24"/>
       <c r="J82" s="25"/>
       <c r="K82" s="25"/>
-      <c r="L82" s="23"/>
+      <c r="L82" s="25"/>
       <c r="M82" s="23"/>
       <c r="N82" s="23"/>
       <c r="O82" s="23"/>
-      <c r="P82" s="19"/>
+      <c r="P82" s="23"/>
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
       <c r="S82" s="19"/>
@@ -4403,8 +4466,9 @@
       <c r="X82" s="19"/>
       <c r="Y82" s="19"/>
       <c r="Z82" s="19"/>
-    </row>
-    <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA82" s="19"/>
+    </row>
+    <row r="83" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="19"/>
       <c r="B83" s="22"/>
       <c r="C83" s="23"/>
@@ -4413,14 +4477,14 @@
       <c r="F83" s="23"/>
       <c r="G83" s="23"/>
       <c r="H83" s="24"/>
-      <c r="I83" s="25"/>
+      <c r="I83" s="24"/>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
-      <c r="L83" s="23"/>
+      <c r="L83" s="25"/>
       <c r="M83" s="23"/>
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
-      <c r="P83" s="19"/>
+      <c r="P83" s="23"/>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="19"/>
@@ -4431,8 +4495,9 @@
       <c r="X83" s="19"/>
       <c r="Y83" s="19"/>
       <c r="Z83" s="19"/>
-    </row>
-    <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA83" s="19"/>
+    </row>
+    <row r="84" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="19"/>
       <c r="B84" s="22"/>
       <c r="C84" s="23"/>
@@ -4441,14 +4506,14 @@
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
       <c r="H84" s="24"/>
-      <c r="I84" s="25"/>
+      <c r="I84" s="24"/>
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
-      <c r="L84" s="23"/>
+      <c r="L84" s="25"/>
       <c r="M84" s="23"/>
       <c r="N84" s="23"/>
       <c r="O84" s="23"/>
-      <c r="P84" s="19"/>
+      <c r="P84" s="23"/>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
       <c r="S84" s="19"/>
@@ -4459,8 +4524,9 @@
       <c r="X84" s="19"/>
       <c r="Y84" s="19"/>
       <c r="Z84" s="19"/>
-    </row>
-    <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA84" s="19"/>
+    </row>
+    <row r="85" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="19"/>
       <c r="B85" s="22"/>
       <c r="C85" s="23"/>
@@ -4469,14 +4535,14 @@
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
       <c r="H85" s="24"/>
-      <c r="I85" s="25"/>
+      <c r="I85" s="24"/>
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
-      <c r="L85" s="23"/>
+      <c r="L85" s="25"/>
       <c r="M85" s="23"/>
       <c r="N85" s="23"/>
       <c r="O85" s="23"/>
-      <c r="P85" s="19"/>
+      <c r="P85" s="23"/>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
       <c r="S85" s="19"/>
@@ -4487,8 +4553,9 @@
       <c r="X85" s="19"/>
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
-    </row>
-    <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA85" s="19"/>
+    </row>
+    <row r="86" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="19"/>
       <c r="B86" s="22"/>
       <c r="C86" s="23"/>
@@ -4497,14 +4564,14 @@
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
       <c r="H86" s="24"/>
-      <c r="I86" s="25"/>
+      <c r="I86" s="24"/>
       <c r="J86" s="25"/>
       <c r="K86" s="25"/>
-      <c r="L86" s="23"/>
+      <c r="L86" s="25"/>
       <c r="M86" s="23"/>
       <c r="N86" s="23"/>
       <c r="O86" s="23"/>
-      <c r="P86" s="19"/>
+      <c r="P86" s="23"/>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
       <c r="S86" s="19"/>
@@ -4515,8 +4582,9 @@
       <c r="X86" s="19"/>
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
-    </row>
-    <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA86" s="19"/>
+    </row>
+    <row r="87" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="19"/>
       <c r="B87" s="22"/>
       <c r="C87" s="23"/>
@@ -4525,14 +4593,14 @@
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
       <c r="H87" s="24"/>
-      <c r="I87" s="25"/>
+      <c r="I87" s="24"/>
       <c r="J87" s="25"/>
       <c r="K87" s="25"/>
-      <c r="L87" s="23"/>
+      <c r="L87" s="25"/>
       <c r="M87" s="23"/>
       <c r="N87" s="23"/>
       <c r="O87" s="23"/>
-      <c r="P87" s="19"/>
+      <c r="P87" s="23"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="19"/>
@@ -4543,8 +4611,9 @@
       <c r="X87" s="19"/>
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
-    </row>
-    <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA87" s="19"/>
+    </row>
+    <row r="88" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="19"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
@@ -4553,14 +4622,14 @@
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
       <c r="H88" s="24"/>
-      <c r="I88" s="25"/>
+      <c r="I88" s="24"/>
       <c r="J88" s="25"/>
       <c r="K88" s="25"/>
-      <c r="L88" s="23"/>
+      <c r="L88" s="25"/>
       <c r="M88" s="23"/>
       <c r="N88" s="23"/>
       <c r="O88" s="23"/>
-      <c r="P88" s="19"/>
+      <c r="P88" s="23"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
       <c r="S88" s="19"/>
@@ -4571,8 +4640,9 @@
       <c r="X88" s="19"/>
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
-    </row>
-    <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA88" s="19"/>
+    </row>
+    <row r="89" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="19"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
@@ -4581,14 +4651,14 @@
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
       <c r="H89" s="24"/>
-      <c r="I89" s="25"/>
+      <c r="I89" s="24"/>
       <c r="J89" s="25"/>
       <c r="K89" s="25"/>
-      <c r="L89" s="23"/>
+      <c r="L89" s="25"/>
       <c r="M89" s="23"/>
       <c r="N89" s="23"/>
       <c r="O89" s="23"/>
-      <c r="P89" s="19"/>
+      <c r="P89" s="23"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
       <c r="S89" s="19"/>
@@ -4599,8 +4669,9 @@
       <c r="X89" s="19"/>
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
-    </row>
-    <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA89" s="19"/>
+    </row>
+    <row r="90" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="19"/>
       <c r="B90" s="22"/>
       <c r="C90" s="23"/>
@@ -4609,14 +4680,14 @@
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="25"/>
+      <c r="I90" s="24"/>
       <c r="J90" s="25"/>
       <c r="K90" s="25"/>
-      <c r="L90" s="23"/>
+      <c r="L90" s="25"/>
       <c r="M90" s="23"/>
       <c r="N90" s="23"/>
       <c r="O90" s="23"/>
-      <c r="P90" s="19"/>
+      <c r="P90" s="23"/>
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
       <c r="S90" s="19"/>
@@ -4627,8 +4698,9 @@
       <c r="X90" s="19"/>
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
-    </row>
-    <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA90" s="19"/>
+    </row>
+    <row r="91" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="19"/>
       <c r="B91" s="22"/>
       <c r="C91" s="23"/>
@@ -4637,14 +4709,14 @@
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
       <c r="H91" s="24"/>
-      <c r="I91" s="25"/>
+      <c r="I91" s="24"/>
       <c r="J91" s="25"/>
       <c r="K91" s="25"/>
-      <c r="L91" s="23"/>
+      <c r="L91" s="25"/>
       <c r="M91" s="23"/>
       <c r="N91" s="23"/>
       <c r="O91" s="23"/>
-      <c r="P91" s="19"/>
+      <c r="P91" s="23"/>
       <c r="Q91" s="19"/>
       <c r="R91" s="19"/>
       <c r="S91" s="19"/>
@@ -4655,8 +4727,9 @@
       <c r="X91" s="19"/>
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
-    </row>
-    <row r="92" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA91" s="19"/>
+    </row>
+    <row r="92" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="19"/>
       <c r="B92" s="22"/>
       <c r="C92" s="23"/>
@@ -4665,14 +4738,14 @@
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
       <c r="H92" s="24"/>
-      <c r="I92" s="25"/>
+      <c r="I92" s="24"/>
       <c r="J92" s="25"/>
       <c r="K92" s="25"/>
-      <c r="L92" s="23"/>
+      <c r="L92" s="25"/>
       <c r="M92" s="23"/>
       <c r="N92" s="23"/>
       <c r="O92" s="23"/>
-      <c r="P92" s="19"/>
+      <c r="P92" s="23"/>
       <c r="Q92" s="19"/>
       <c r="R92" s="19"/>
       <c r="S92" s="19"/>
@@ -4683,8 +4756,9 @@
       <c r="X92" s="19"/>
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
-    </row>
-    <row r="93" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA92" s="19"/>
+    </row>
+    <row r="93" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="19"/>
       <c r="B93" s="22"/>
       <c r="C93" s="23"/>
@@ -4693,14 +4767,14 @@
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
       <c r="H93" s="24"/>
-      <c r="I93" s="25"/>
+      <c r="I93" s="24"/>
       <c r="J93" s="25"/>
       <c r="K93" s="25"/>
-      <c r="L93" s="23"/>
+      <c r="L93" s="25"/>
       <c r="M93" s="23"/>
       <c r="N93" s="23"/>
       <c r="O93" s="23"/>
-      <c r="P93" s="19"/>
+      <c r="P93" s="23"/>
       <c r="Q93" s="19"/>
       <c r="R93" s="19"/>
       <c r="S93" s="19"/>
@@ -4711,8 +4785,9 @@
       <c r="X93" s="19"/>
       <c r="Y93" s="19"/>
       <c r="Z93" s="19"/>
-    </row>
-    <row r="94" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA93" s="19"/>
+    </row>
+    <row r="94" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="19"/>
       <c r="B94" s="22"/>
       <c r="C94" s="23"/>
@@ -4721,14 +4796,14 @@
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
       <c r="H94" s="24"/>
-      <c r="I94" s="25"/>
+      <c r="I94" s="24"/>
       <c r="J94" s="25"/>
       <c r="K94" s="25"/>
-      <c r="L94" s="23"/>
+      <c r="L94" s="25"/>
       <c r="M94" s="23"/>
       <c r="N94" s="23"/>
       <c r="O94" s="23"/>
-      <c r="P94" s="19"/>
+      <c r="P94" s="23"/>
       <c r="Q94" s="19"/>
       <c r="R94" s="19"/>
       <c r="S94" s="19"/>
@@ -4739,8 +4814,9 @@
       <c r="X94" s="19"/>
       <c r="Y94" s="19"/>
       <c r="Z94" s="19"/>
-    </row>
-    <row r="95" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA94" s="19"/>
+    </row>
+    <row r="95" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="19"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
@@ -4749,14 +4825,14 @@
       <c r="F95" s="23"/>
       <c r="G95" s="23"/>
       <c r="H95" s="24"/>
-      <c r="I95" s="25"/>
+      <c r="I95" s="24"/>
       <c r="J95" s="25"/>
       <c r="K95" s="25"/>
-      <c r="L95" s="23"/>
+      <c r="L95" s="25"/>
       <c r="M95" s="23"/>
       <c r="N95" s="23"/>
       <c r="O95" s="23"/>
-      <c r="P95" s="19"/>
+      <c r="P95" s="23"/>
       <c r="Q95" s="19"/>
       <c r="R95" s="19"/>
       <c r="S95" s="19"/>
@@ -4767,8 +4843,9 @@
       <c r="X95" s="19"/>
       <c r="Y95" s="19"/>
       <c r="Z95" s="19"/>
-    </row>
-    <row r="96" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA95" s="19"/>
+    </row>
+    <row r="96" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="19"/>
       <c r="B96" s="22"/>
       <c r="C96" s="23"/>
@@ -4777,14 +4854,14 @@
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
       <c r="H96" s="24"/>
-      <c r="I96" s="25"/>
+      <c r="I96" s="24"/>
       <c r="J96" s="25"/>
       <c r="K96" s="25"/>
-      <c r="L96" s="23"/>
+      <c r="L96" s="25"/>
       <c r="M96" s="23"/>
       <c r="N96" s="23"/>
       <c r="O96" s="23"/>
-      <c r="P96" s="19"/>
+      <c r="P96" s="23"/>
       <c r="Q96" s="19"/>
       <c r="R96" s="19"/>
       <c r="S96" s="19"/>
@@ -4795,8 +4872,9 @@
       <c r="X96" s="19"/>
       <c r="Y96" s="19"/>
       <c r="Z96" s="19"/>
-    </row>
-    <row r="97" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA96" s="19"/>
+    </row>
+    <row r="97" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="19"/>
       <c r="B97" s="22"/>
       <c r="C97" s="23"/>
@@ -4805,14 +4883,14 @@
       <c r="F97" s="23"/>
       <c r="G97" s="23"/>
       <c r="H97" s="24"/>
-      <c r="I97" s="25"/>
+      <c r="I97" s="24"/>
       <c r="J97" s="25"/>
       <c r="K97" s="25"/>
-      <c r="L97" s="23"/>
+      <c r="L97" s="25"/>
       <c r="M97" s="23"/>
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
-      <c r="P97" s="19"/>
+      <c r="P97" s="23"/>
       <c r="Q97" s="19"/>
       <c r="R97" s="19"/>
       <c r="S97" s="19"/>
@@ -4823,8 +4901,9 @@
       <c r="X97" s="19"/>
       <c r="Y97" s="19"/>
       <c r="Z97" s="19"/>
-    </row>
-    <row r="98" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA97" s="19"/>
+    </row>
+    <row r="98" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="19"/>
       <c r="B98" s="22"/>
       <c r="C98" s="23"/>
@@ -4833,14 +4912,14 @@
       <c r="F98" s="23"/>
       <c r="G98" s="23"/>
       <c r="H98" s="24"/>
-      <c r="I98" s="25"/>
+      <c r="I98" s="24"/>
       <c r="J98" s="25"/>
       <c r="K98" s="25"/>
-      <c r="L98" s="23"/>
+      <c r="L98" s="25"/>
       <c r="M98" s="23"/>
       <c r="N98" s="23"/>
       <c r="O98" s="23"/>
-      <c r="P98" s="19"/>
+      <c r="P98" s="23"/>
       <c r="Q98" s="19"/>
       <c r="R98" s="19"/>
       <c r="S98" s="19"/>
@@ -4851,8 +4930,9 @@
       <c r="X98" s="19"/>
       <c r="Y98" s="19"/>
       <c r="Z98" s="19"/>
-    </row>
-    <row r="99" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA98" s="19"/>
+    </row>
+    <row r="99" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="19"/>
       <c r="B99" s="22"/>
       <c r="C99" s="23"/>
@@ -4861,14 +4941,14 @@
       <c r="F99" s="23"/>
       <c r="G99" s="23"/>
       <c r="H99" s="24"/>
-      <c r="I99" s="25"/>
+      <c r="I99" s="24"/>
       <c r="J99" s="25"/>
       <c r="K99" s="25"/>
-      <c r="L99" s="23"/>
+      <c r="L99" s="25"/>
       <c r="M99" s="23"/>
       <c r="N99" s="23"/>
       <c r="O99" s="23"/>
-      <c r="P99" s="19"/>
+      <c r="P99" s="23"/>
       <c r="Q99" s="19"/>
       <c r="R99" s="19"/>
       <c r="S99" s="19"/>
@@ -4879,8 +4959,9 @@
       <c r="X99" s="19"/>
       <c r="Y99" s="19"/>
       <c r="Z99" s="19"/>
-    </row>
-    <row r="100" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA99" s="19"/>
+    </row>
+    <row r="100" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="19"/>
       <c r="B100" s="22"/>
       <c r="C100" s="23"/>
@@ -4889,14 +4970,14 @@
       <c r="F100" s="23"/>
       <c r="G100" s="23"/>
       <c r="H100" s="24"/>
-      <c r="I100" s="25"/>
+      <c r="I100" s="24"/>
       <c r="J100" s="25"/>
       <c r="K100" s="25"/>
-      <c r="L100" s="23"/>
+      <c r="L100" s="25"/>
       <c r="M100" s="23"/>
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
-      <c r="P100" s="19"/>
+      <c r="P100" s="23"/>
       <c r="Q100" s="19"/>
       <c r="R100" s="19"/>
       <c r="S100" s="19"/>
@@ -4907,8 +4988,9 @@
       <c r="X100" s="19"/>
       <c r="Y100" s="19"/>
       <c r="Z100" s="19"/>
-    </row>
-    <row r="101" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA100" s="19"/>
+    </row>
+    <row r="101" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="19"/>
       <c r="B101" s="22"/>
       <c r="C101" s="23"/>
@@ -4917,14 +4999,14 @@
       <c r="F101" s="23"/>
       <c r="G101" s="23"/>
       <c r="H101" s="24"/>
-      <c r="I101" s="25"/>
+      <c r="I101" s="24"/>
       <c r="J101" s="25"/>
       <c r="K101" s="25"/>
-      <c r="L101" s="23"/>
+      <c r="L101" s="25"/>
       <c r="M101" s="23"/>
       <c r="N101" s="23"/>
       <c r="O101" s="23"/>
-      <c r="P101" s="19"/>
+      <c r="P101" s="23"/>
       <c r="Q101" s="19"/>
       <c r="R101" s="19"/>
       <c r="S101" s="19"/>
@@ -4935,8 +5017,9 @@
       <c r="X101" s="19"/>
       <c r="Y101" s="19"/>
       <c r="Z101" s="19"/>
-    </row>
-    <row r="102" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA101" s="19"/>
+    </row>
+    <row r="102" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="19"/>
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
@@ -4945,14 +5028,14 @@
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
       <c r="H102" s="24"/>
-      <c r="I102" s="25"/>
+      <c r="I102" s="24"/>
       <c r="J102" s="25"/>
       <c r="K102" s="25"/>
-      <c r="L102" s="23"/>
+      <c r="L102" s="25"/>
       <c r="M102" s="23"/>
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
-      <c r="P102" s="19"/>
+      <c r="P102" s="23"/>
       <c r="Q102" s="19"/>
       <c r="R102" s="19"/>
       <c r="S102" s="19"/>
@@ -4963,8 +5046,9 @@
       <c r="X102" s="19"/>
       <c r="Y102" s="19"/>
       <c r="Z102" s="19"/>
-    </row>
-    <row r="103" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA102" s="19"/>
+    </row>
+    <row r="103" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="19"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
@@ -4973,14 +5057,14 @@
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
       <c r="H103" s="24"/>
-      <c r="I103" s="25"/>
+      <c r="I103" s="24"/>
       <c r="J103" s="25"/>
       <c r="K103" s="25"/>
-      <c r="L103" s="23"/>
+      <c r="L103" s="25"/>
       <c r="M103" s="23"/>
       <c r="N103" s="23"/>
       <c r="O103" s="23"/>
-      <c r="P103" s="19"/>
+      <c r="P103" s="23"/>
       <c r="Q103" s="19"/>
       <c r="R103" s="19"/>
       <c r="S103" s="19"/>
@@ -4991,8 +5075,9 @@
       <c r="X103" s="19"/>
       <c r="Y103" s="19"/>
       <c r="Z103" s="19"/>
-    </row>
-    <row r="104" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA103" s="19"/>
+    </row>
+    <row r="104" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="19"/>
       <c r="B104" s="22"/>
       <c r="C104" s="23"/>
@@ -5001,14 +5086,14 @@
       <c r="F104" s="23"/>
       <c r="G104" s="23"/>
       <c r="H104" s="24"/>
-      <c r="I104" s="25"/>
+      <c r="I104" s="24"/>
       <c r="J104" s="25"/>
       <c r="K104" s="25"/>
-      <c r="L104" s="23"/>
+      <c r="L104" s="25"/>
       <c r="M104" s="23"/>
       <c r="N104" s="23"/>
       <c r="O104" s="23"/>
-      <c r="P104" s="19"/>
+      <c r="P104" s="23"/>
       <c r="Q104" s="19"/>
       <c r="R104" s="19"/>
       <c r="S104" s="19"/>
@@ -5019,8 +5104,9 @@
       <c r="X104" s="19"/>
       <c r="Y104" s="19"/>
       <c r="Z104" s="19"/>
-    </row>
-    <row r="105" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA104" s="19"/>
+    </row>
+    <row r="105" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="19"/>
       <c r="B105" s="22"/>
       <c r="C105" s="23"/>
@@ -5029,14 +5115,14 @@
       <c r="F105" s="23"/>
       <c r="G105" s="23"/>
       <c r="H105" s="24"/>
-      <c r="I105" s="25"/>
+      <c r="I105" s="24"/>
       <c r="J105" s="25"/>
       <c r="K105" s="25"/>
-      <c r="L105" s="23"/>
+      <c r="L105" s="25"/>
       <c r="M105" s="23"/>
       <c r="N105" s="23"/>
       <c r="O105" s="23"/>
-      <c r="P105" s="19"/>
+      <c r="P105" s="23"/>
       <c r="Q105" s="19"/>
       <c r="R105" s="19"/>
       <c r="S105" s="19"/>
@@ -5047,8 +5133,9 @@
       <c r="X105" s="19"/>
       <c r="Y105" s="19"/>
       <c r="Z105" s="19"/>
-    </row>
-    <row r="106" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA105" s="19"/>
+    </row>
+    <row r="106" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="19"/>
       <c r="B106" s="22"/>
       <c r="C106" s="23"/>
@@ -5057,14 +5144,14 @@
       <c r="F106" s="23"/>
       <c r="G106" s="23"/>
       <c r="H106" s="24"/>
-      <c r="I106" s="25"/>
+      <c r="I106" s="24"/>
       <c r="J106" s="25"/>
       <c r="K106" s="25"/>
-      <c r="L106" s="23"/>
+      <c r="L106" s="25"/>
       <c r="M106" s="23"/>
       <c r="N106" s="23"/>
       <c r="O106" s="23"/>
-      <c r="P106" s="19"/>
+      <c r="P106" s="23"/>
       <c r="Q106" s="19"/>
       <c r="R106" s="19"/>
       <c r="S106" s="19"/>
@@ -5075,8 +5162,9 @@
       <c r="X106" s="19"/>
       <c r="Y106" s="19"/>
       <c r="Z106" s="19"/>
-    </row>
-    <row r="107" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA106" s="19"/>
+    </row>
+    <row r="107" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="19"/>
       <c r="B107" s="22"/>
       <c r="C107" s="23"/>
@@ -5085,14 +5173,14 @@
       <c r="F107" s="23"/>
       <c r="G107" s="23"/>
       <c r="H107" s="24"/>
-      <c r="I107" s="25"/>
+      <c r="I107" s="24"/>
       <c r="J107" s="25"/>
       <c r="K107" s="25"/>
-      <c r="L107" s="23"/>
+      <c r="L107" s="25"/>
       <c r="M107" s="23"/>
       <c r="N107" s="23"/>
       <c r="O107" s="23"/>
-      <c r="P107" s="19"/>
+      <c r="P107" s="23"/>
       <c r="Q107" s="19"/>
       <c r="R107" s="19"/>
       <c r="S107" s="19"/>
@@ -5103,8 +5191,9 @@
       <c r="X107" s="19"/>
       <c r="Y107" s="19"/>
       <c r="Z107" s="19"/>
-    </row>
-    <row r="108" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA107" s="19"/>
+    </row>
+    <row r="108" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="19"/>
       <c r="B108" s="22"/>
       <c r="C108" s="23"/>
@@ -5113,14 +5202,14 @@
       <c r="F108" s="23"/>
       <c r="G108" s="23"/>
       <c r="H108" s="24"/>
-      <c r="I108" s="25"/>
+      <c r="I108" s="24"/>
       <c r="J108" s="25"/>
       <c r="K108" s="25"/>
-      <c r="L108" s="23"/>
+      <c r="L108" s="25"/>
       <c r="M108" s="23"/>
       <c r="N108" s="23"/>
       <c r="O108" s="23"/>
-      <c r="P108" s="19"/>
+      <c r="P108" s="23"/>
       <c r="Q108" s="19"/>
       <c r="R108" s="19"/>
       <c r="S108" s="19"/>
@@ -5131,8 +5220,9 @@
       <c r="X108" s="19"/>
       <c r="Y108" s="19"/>
       <c r="Z108" s="19"/>
-    </row>
-    <row r="109" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA108" s="19"/>
+    </row>
+    <row r="109" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="19"/>
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
@@ -5141,14 +5231,14 @@
       <c r="F109" s="23"/>
       <c r="G109" s="23"/>
       <c r="H109" s="24"/>
-      <c r="I109" s="25"/>
+      <c r="I109" s="24"/>
       <c r="J109" s="25"/>
       <c r="K109" s="25"/>
-      <c r="L109" s="23"/>
+      <c r="L109" s="25"/>
       <c r="M109" s="23"/>
       <c r="N109" s="23"/>
       <c r="O109" s="23"/>
-      <c r="P109" s="19"/>
+      <c r="P109" s="23"/>
       <c r="Q109" s="19"/>
       <c r="R109" s="19"/>
       <c r="S109" s="19"/>
@@ -5159,8 +5249,9 @@
       <c r="X109" s="19"/>
       <c r="Y109" s="19"/>
       <c r="Z109" s="19"/>
-    </row>
-    <row r="110" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA109" s="19"/>
+    </row>
+    <row r="110" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="19"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
@@ -5169,14 +5260,14 @@
       <c r="F110" s="23"/>
       <c r="G110" s="23"/>
       <c r="H110" s="24"/>
-      <c r="I110" s="25"/>
+      <c r="I110" s="24"/>
       <c r="J110" s="25"/>
       <c r="K110" s="25"/>
-      <c r="L110" s="23"/>
+      <c r="L110" s="25"/>
       <c r="M110" s="23"/>
       <c r="N110" s="23"/>
       <c r="O110" s="23"/>
-      <c r="P110" s="19"/>
+      <c r="P110" s="23"/>
       <c r="Q110" s="19"/>
       <c r="R110" s="19"/>
       <c r="S110" s="19"/>
@@ -5187,8 +5278,9 @@
       <c r="X110" s="19"/>
       <c r="Y110" s="19"/>
       <c r="Z110" s="19"/>
-    </row>
-    <row r="111" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA110" s="19"/>
+    </row>
+    <row r="111" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="19"/>
       <c r="B111" s="22"/>
       <c r="C111" s="23"/>
@@ -5197,14 +5289,14 @@
       <c r="F111" s="23"/>
       <c r="G111" s="23"/>
       <c r="H111" s="24"/>
-      <c r="I111" s="25"/>
+      <c r="I111" s="24"/>
       <c r="J111" s="25"/>
       <c r="K111" s="25"/>
-      <c r="L111" s="23"/>
+      <c r="L111" s="25"/>
       <c r="M111" s="23"/>
       <c r="N111" s="23"/>
       <c r="O111" s="23"/>
-      <c r="P111" s="19"/>
+      <c r="P111" s="23"/>
       <c r="Q111" s="19"/>
       <c r="R111" s="19"/>
       <c r="S111" s="19"/>
@@ -5215,8 +5307,9 @@
       <c r="X111" s="19"/>
       <c r="Y111" s="19"/>
       <c r="Z111" s="19"/>
-    </row>
-    <row r="112" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA111" s="19"/>
+    </row>
+    <row r="112" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="19"/>
       <c r="B112" s="22"/>
       <c r="C112" s="23"/>
@@ -5225,14 +5318,14 @@
       <c r="F112" s="23"/>
       <c r="G112" s="23"/>
       <c r="H112" s="24"/>
-      <c r="I112" s="25"/>
+      <c r="I112" s="24"/>
       <c r="J112" s="25"/>
       <c r="K112" s="25"/>
-      <c r="L112" s="23"/>
+      <c r="L112" s="25"/>
       <c r="M112" s="23"/>
       <c r="N112" s="23"/>
       <c r="O112" s="23"/>
-      <c r="P112" s="19"/>
+      <c r="P112" s="23"/>
       <c r="Q112" s="19"/>
       <c r="R112" s="19"/>
       <c r="S112" s="19"/>
@@ -5243,8 +5336,9 @@
       <c r="X112" s="19"/>
       <c r="Y112" s="19"/>
       <c r="Z112" s="19"/>
-    </row>
-    <row r="113" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA112" s="19"/>
+    </row>
+    <row r="113" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="19"/>
       <c r="B113" s="22"/>
       <c r="C113" s="23"/>
@@ -5253,14 +5347,14 @@
       <c r="F113" s="23"/>
       <c r="G113" s="23"/>
       <c r="H113" s="24"/>
-      <c r="I113" s="25"/>
+      <c r="I113" s="24"/>
       <c r="J113" s="25"/>
       <c r="K113" s="25"/>
-      <c r="L113" s="23"/>
+      <c r="L113" s="25"/>
       <c r="M113" s="23"/>
       <c r="N113" s="23"/>
       <c r="O113" s="23"/>
-      <c r="P113" s="19"/>
+      <c r="P113" s="23"/>
       <c r="Q113" s="19"/>
       <c r="R113" s="19"/>
       <c r="S113" s="19"/>
@@ -5271,8 +5365,9 @@
       <c r="X113" s="19"/>
       <c r="Y113" s="19"/>
       <c r="Z113" s="19"/>
-    </row>
-    <row r="114" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA113" s="19"/>
+    </row>
+    <row r="114" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="19"/>
       <c r="B114" s="22"/>
       <c r="C114" s="23"/>
@@ -5281,14 +5376,14 @@
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
       <c r="H114" s="24"/>
-      <c r="I114" s="25"/>
+      <c r="I114" s="24"/>
       <c r="J114" s="25"/>
       <c r="K114" s="25"/>
-      <c r="L114" s="23"/>
+      <c r="L114" s="25"/>
       <c r="M114" s="23"/>
       <c r="N114" s="23"/>
       <c r="O114" s="23"/>
-      <c r="P114" s="19"/>
+      <c r="P114" s="23"/>
       <c r="Q114" s="19"/>
       <c r="R114" s="19"/>
       <c r="S114" s="19"/>
@@ -5299,8 +5394,9 @@
       <c r="X114" s="19"/>
       <c r="Y114" s="19"/>
       <c r="Z114" s="19"/>
-    </row>
-    <row r="115" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA114" s="19"/>
+    </row>
+    <row r="115" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="19"/>
       <c r="B115" s="22"/>
       <c r="C115" s="23"/>
@@ -5309,14 +5405,14 @@
       <c r="F115" s="23"/>
       <c r="G115" s="23"/>
       <c r="H115" s="24"/>
-      <c r="I115" s="25"/>
+      <c r="I115" s="24"/>
       <c r="J115" s="25"/>
       <c r="K115" s="25"/>
-      <c r="L115" s="23"/>
+      <c r="L115" s="25"/>
       <c r="M115" s="23"/>
       <c r="N115" s="23"/>
       <c r="O115" s="23"/>
-      <c r="P115" s="19"/>
+      <c r="P115" s="23"/>
       <c r="Q115" s="19"/>
       <c r="R115" s="19"/>
       <c r="S115" s="19"/>
@@ -5327,8 +5423,9 @@
       <c r="X115" s="19"/>
       <c r="Y115" s="19"/>
       <c r="Z115" s="19"/>
-    </row>
-    <row r="116" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA115" s="19"/>
+    </row>
+    <row r="116" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="19"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
@@ -5337,14 +5434,14 @@
       <c r="F116" s="23"/>
       <c r="G116" s="23"/>
       <c r="H116" s="24"/>
-      <c r="I116" s="25"/>
+      <c r="I116" s="24"/>
       <c r="J116" s="25"/>
       <c r="K116" s="25"/>
-      <c r="L116" s="23"/>
+      <c r="L116" s="25"/>
       <c r="M116" s="23"/>
       <c r="N116" s="23"/>
       <c r="O116" s="23"/>
-      <c r="P116" s="19"/>
+      <c r="P116" s="23"/>
       <c r="Q116" s="19"/>
       <c r="R116" s="19"/>
       <c r="S116" s="19"/>
@@ -5355,8 +5452,9 @@
       <c r="X116" s="19"/>
       <c r="Y116" s="19"/>
       <c r="Z116" s="19"/>
-    </row>
-    <row r="117" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA116" s="19"/>
+    </row>
+    <row r="117" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="19"/>
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
@@ -5365,14 +5463,14 @@
       <c r="F117" s="23"/>
       <c r="G117" s="23"/>
       <c r="H117" s="24"/>
-      <c r="I117" s="25"/>
+      <c r="I117" s="24"/>
       <c r="J117" s="25"/>
       <c r="K117" s="25"/>
-      <c r="L117" s="23"/>
+      <c r="L117" s="25"/>
       <c r="M117" s="23"/>
       <c r="N117" s="23"/>
       <c r="O117" s="23"/>
-      <c r="P117" s="19"/>
+      <c r="P117" s="23"/>
       <c r="Q117" s="19"/>
       <c r="R117" s="19"/>
       <c r="S117" s="19"/>
@@ -5383,8 +5481,9 @@
       <c r="X117" s="19"/>
       <c r="Y117" s="19"/>
       <c r="Z117" s="19"/>
-    </row>
-    <row r="118" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA117" s="19"/>
+    </row>
+    <row r="118" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="19"/>
       <c r="B118" s="22"/>
       <c r="C118" s="23"/>
@@ -5393,14 +5492,14 @@
       <c r="F118" s="23"/>
       <c r="G118" s="23"/>
       <c r="H118" s="24"/>
-      <c r="I118" s="25"/>
+      <c r="I118" s="24"/>
       <c r="J118" s="25"/>
       <c r="K118" s="25"/>
-      <c r="L118" s="23"/>
+      <c r="L118" s="25"/>
       <c r="M118" s="23"/>
       <c r="N118" s="23"/>
       <c r="O118" s="23"/>
-      <c r="P118" s="19"/>
+      <c r="P118" s="23"/>
       <c r="Q118" s="19"/>
       <c r="R118" s="19"/>
       <c r="S118" s="19"/>
@@ -5411,8 +5510,9 @@
       <c r="X118" s="19"/>
       <c r="Y118" s="19"/>
       <c r="Z118" s="19"/>
-    </row>
-    <row r="119" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA118" s="19"/>
+    </row>
+    <row r="119" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="19"/>
       <c r="B119" s="22"/>
       <c r="C119" s="23"/>
@@ -5421,14 +5521,14 @@
       <c r="F119" s="23"/>
       <c r="G119" s="23"/>
       <c r="H119" s="24"/>
-      <c r="I119" s="25"/>
+      <c r="I119" s="24"/>
       <c r="J119" s="25"/>
       <c r="K119" s="25"/>
-      <c r="L119" s="23"/>
+      <c r="L119" s="25"/>
       <c r="M119" s="23"/>
       <c r="N119" s="23"/>
       <c r="O119" s="23"/>
-      <c r="P119" s="19"/>
+      <c r="P119" s="23"/>
       <c r="Q119" s="19"/>
       <c r="R119" s="19"/>
       <c r="S119" s="19"/>
@@ -5439,8 +5539,9 @@
       <c r="X119" s="19"/>
       <c r="Y119" s="19"/>
       <c r="Z119" s="19"/>
-    </row>
-    <row r="120" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA119" s="19"/>
+    </row>
+    <row r="120" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="19"/>
       <c r="B120" s="22"/>
       <c r="C120" s="23"/>
@@ -5449,14 +5550,14 @@
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
       <c r="H120" s="24"/>
-      <c r="I120" s="25"/>
+      <c r="I120" s="24"/>
       <c r="J120" s="25"/>
       <c r="K120" s="25"/>
-      <c r="L120" s="23"/>
+      <c r="L120" s="25"/>
       <c r="M120" s="23"/>
       <c r="N120" s="23"/>
       <c r="O120" s="23"/>
-      <c r="P120" s="19"/>
+      <c r="P120" s="23"/>
       <c r="Q120" s="19"/>
       <c r="R120" s="19"/>
       <c r="S120" s="19"/>
@@ -5467,8 +5568,9 @@
       <c r="X120" s="19"/>
       <c r="Y120" s="19"/>
       <c r="Z120" s="19"/>
-    </row>
-    <row r="121" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA120" s="19"/>
+    </row>
+    <row r="121" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="19"/>
       <c r="B121" s="22"/>
       <c r="C121" s="23"/>
@@ -5477,14 +5579,14 @@
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="25"/>
+      <c r="I121" s="24"/>
       <c r="J121" s="25"/>
       <c r="K121" s="25"/>
-      <c r="L121" s="23"/>
+      <c r="L121" s="25"/>
       <c r="M121" s="23"/>
       <c r="N121" s="23"/>
       <c r="O121" s="23"/>
-      <c r="P121" s="19"/>
+      <c r="P121" s="23"/>
       <c r="Q121" s="19"/>
       <c r="R121" s="19"/>
       <c r="S121" s="19"/>
@@ -5495,8 +5597,9 @@
       <c r="X121" s="19"/>
       <c r="Y121" s="19"/>
       <c r="Z121" s="19"/>
-    </row>
-    <row r="122" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA121" s="19"/>
+    </row>
+    <row r="122" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="19"/>
       <c r="B122" s="22"/>
       <c r="C122" s="23"/>
@@ -5505,14 +5608,14 @@
       <c r="F122" s="23"/>
       <c r="G122" s="23"/>
       <c r="H122" s="24"/>
-      <c r="I122" s="25"/>
+      <c r="I122" s="24"/>
       <c r="J122" s="25"/>
       <c r="K122" s="25"/>
-      <c r="L122" s="23"/>
+      <c r="L122" s="25"/>
       <c r="M122" s="23"/>
       <c r="N122" s="23"/>
       <c r="O122" s="23"/>
-      <c r="P122" s="19"/>
+      <c r="P122" s="23"/>
       <c r="Q122" s="19"/>
       <c r="R122" s="19"/>
       <c r="S122" s="19"/>
@@ -5523,8 +5626,9 @@
       <c r="X122" s="19"/>
       <c r="Y122" s="19"/>
       <c r="Z122" s="19"/>
-    </row>
-    <row r="123" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA122" s="19"/>
+    </row>
+    <row r="123" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="19"/>
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
@@ -5533,14 +5637,14 @@
       <c r="F123" s="23"/>
       <c r="G123" s="23"/>
       <c r="H123" s="24"/>
-      <c r="I123" s="25"/>
+      <c r="I123" s="24"/>
       <c r="J123" s="25"/>
       <c r="K123" s="25"/>
-      <c r="L123" s="23"/>
+      <c r="L123" s="25"/>
       <c r="M123" s="23"/>
       <c r="N123" s="23"/>
       <c r="O123" s="23"/>
-      <c r="P123" s="19"/>
+      <c r="P123" s="23"/>
       <c r="Q123" s="19"/>
       <c r="R123" s="19"/>
       <c r="S123" s="19"/>
@@ -5551,8 +5655,9 @@
       <c r="X123" s="19"/>
       <c r="Y123" s="19"/>
       <c r="Z123" s="19"/>
-    </row>
-    <row r="124" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA123" s="19"/>
+    </row>
+    <row r="124" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="19"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
@@ -5561,14 +5666,14 @@
       <c r="F124" s="23"/>
       <c r="G124" s="23"/>
       <c r="H124" s="24"/>
-      <c r="I124" s="25"/>
+      <c r="I124" s="24"/>
       <c r="J124" s="25"/>
       <c r="K124" s="25"/>
-      <c r="L124" s="23"/>
+      <c r="L124" s="25"/>
       <c r="M124" s="23"/>
       <c r="N124" s="23"/>
       <c r="O124" s="23"/>
-      <c r="P124" s="19"/>
+      <c r="P124" s="23"/>
       <c r="Q124" s="19"/>
       <c r="R124" s="19"/>
       <c r="S124" s="19"/>
@@ -5579,8 +5684,9 @@
       <c r="X124" s="19"/>
       <c r="Y124" s="19"/>
       <c r="Z124" s="19"/>
-    </row>
-    <row r="125" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA124" s="19"/>
+    </row>
+    <row r="125" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="19"/>
       <c r="B125" s="22"/>
       <c r="C125" s="23"/>
@@ -5589,14 +5695,14 @@
       <c r="F125" s="23"/>
       <c r="G125" s="23"/>
       <c r="H125" s="24"/>
-      <c r="I125" s="25"/>
+      <c r="I125" s="24"/>
       <c r="J125" s="25"/>
       <c r="K125" s="25"/>
-      <c r="L125" s="23"/>
+      <c r="L125" s="25"/>
       <c r="M125" s="23"/>
       <c r="N125" s="23"/>
       <c r="O125" s="23"/>
-      <c r="P125" s="19"/>
+      <c r="P125" s="23"/>
       <c r="Q125" s="19"/>
       <c r="R125" s="19"/>
       <c r="S125" s="19"/>
@@ -5607,8 +5713,9 @@
       <c r="X125" s="19"/>
       <c r="Y125" s="19"/>
       <c r="Z125" s="19"/>
-    </row>
-    <row r="126" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA125" s="19"/>
+    </row>
+    <row r="126" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="19"/>
       <c r="B126" s="22"/>
       <c r="C126" s="23"/>
@@ -5617,14 +5724,14 @@
       <c r="F126" s="23"/>
       <c r="G126" s="23"/>
       <c r="H126" s="24"/>
-      <c r="I126" s="25"/>
+      <c r="I126" s="24"/>
       <c r="J126" s="25"/>
       <c r="K126" s="25"/>
-      <c r="L126" s="23"/>
+      <c r="L126" s="25"/>
       <c r="M126" s="23"/>
       <c r="N126" s="23"/>
       <c r="O126" s="23"/>
-      <c r="P126" s="19"/>
+      <c r="P126" s="23"/>
       <c r="Q126" s="19"/>
       <c r="R126" s="19"/>
       <c r="S126" s="19"/>
@@ -5635,8 +5742,9 @@
       <c r="X126" s="19"/>
       <c r="Y126" s="19"/>
       <c r="Z126" s="19"/>
-    </row>
-    <row r="127" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA126" s="19"/>
+    </row>
+    <row r="127" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="19"/>
       <c r="B127" s="22"/>
       <c r="C127" s="23"/>
@@ -5645,14 +5753,14 @@
       <c r="F127" s="23"/>
       <c r="G127" s="23"/>
       <c r="H127" s="24"/>
-      <c r="I127" s="25"/>
+      <c r="I127" s="24"/>
       <c r="J127" s="25"/>
       <c r="K127" s="25"/>
-      <c r="L127" s="23"/>
+      <c r="L127" s="25"/>
       <c r="M127" s="23"/>
       <c r="N127" s="23"/>
       <c r="O127" s="23"/>
-      <c r="P127" s="19"/>
+      <c r="P127" s="23"/>
       <c r="Q127" s="19"/>
       <c r="R127" s="19"/>
       <c r="S127" s="19"/>
@@ -5663,8 +5771,9 @@
       <c r="X127" s="19"/>
       <c r="Y127" s="19"/>
       <c r="Z127" s="19"/>
-    </row>
-    <row r="128" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA127" s="19"/>
+    </row>
+    <row r="128" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="19"/>
       <c r="B128" s="22"/>
       <c r="C128" s="23"/>
@@ -5673,14 +5782,14 @@
       <c r="F128" s="23"/>
       <c r="G128" s="23"/>
       <c r="H128" s="24"/>
-      <c r="I128" s="25"/>
+      <c r="I128" s="24"/>
       <c r="J128" s="25"/>
       <c r="K128" s="25"/>
-      <c r="L128" s="23"/>
+      <c r="L128" s="25"/>
       <c r="M128" s="23"/>
       <c r="N128" s="23"/>
       <c r="O128" s="23"/>
-      <c r="P128" s="19"/>
+      <c r="P128" s="23"/>
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
       <c r="S128" s="19"/>
@@ -5691,8 +5800,9 @@
       <c r="X128" s="19"/>
       <c r="Y128" s="19"/>
       <c r="Z128" s="19"/>
-    </row>
-    <row r="129" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA128" s="19"/>
+    </row>
+    <row r="129" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="19"/>
       <c r="B129" s="22"/>
       <c r="C129" s="23"/>
@@ -5701,14 +5811,14 @@
       <c r="F129" s="23"/>
       <c r="G129" s="23"/>
       <c r="H129" s="24"/>
-      <c r="I129" s="25"/>
+      <c r="I129" s="24"/>
       <c r="J129" s="25"/>
       <c r="K129" s="25"/>
-      <c r="L129" s="23"/>
+      <c r="L129" s="25"/>
       <c r="M129" s="23"/>
       <c r="N129" s="23"/>
       <c r="O129" s="23"/>
-      <c r="P129" s="19"/>
+      <c r="P129" s="23"/>
       <c r="Q129" s="19"/>
       <c r="R129" s="19"/>
       <c r="S129" s="19"/>
@@ -5719,8 +5829,9 @@
       <c r="X129" s="19"/>
       <c r="Y129" s="19"/>
       <c r="Z129" s="19"/>
-    </row>
-    <row r="130" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA129" s="19"/>
+    </row>
+    <row r="130" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="19"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
@@ -5729,14 +5840,14 @@
       <c r="F130" s="23"/>
       <c r="G130" s="23"/>
       <c r="H130" s="24"/>
-      <c r="I130" s="25"/>
+      <c r="I130" s="24"/>
       <c r="J130" s="25"/>
       <c r="K130" s="25"/>
-      <c r="L130" s="23"/>
+      <c r="L130" s="25"/>
       <c r="M130" s="23"/>
       <c r="N130" s="23"/>
       <c r="O130" s="23"/>
-      <c r="P130" s="19"/>
+      <c r="P130" s="23"/>
       <c r="Q130" s="19"/>
       <c r="R130" s="19"/>
       <c r="S130" s="19"/>
@@ -5747,8 +5858,9 @@
       <c r="X130" s="19"/>
       <c r="Y130" s="19"/>
       <c r="Z130" s="19"/>
-    </row>
-    <row r="131" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA130" s="19"/>
+    </row>
+    <row r="131" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="19"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
@@ -5757,14 +5869,14 @@
       <c r="F131" s="23"/>
       <c r="G131" s="23"/>
       <c r="H131" s="24"/>
-      <c r="I131" s="25"/>
+      <c r="I131" s="24"/>
       <c r="J131" s="25"/>
       <c r="K131" s="25"/>
-      <c r="L131" s="23"/>
+      <c r="L131" s="25"/>
       <c r="M131" s="23"/>
       <c r="N131" s="23"/>
       <c r="O131" s="23"/>
-      <c r="P131" s="19"/>
+      <c r="P131" s="23"/>
       <c r="Q131" s="19"/>
       <c r="R131" s="19"/>
       <c r="S131" s="19"/>
@@ -5775,8 +5887,9 @@
       <c r="X131" s="19"/>
       <c r="Y131" s="19"/>
       <c r="Z131" s="19"/>
-    </row>
-    <row r="132" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA131" s="19"/>
+    </row>
+    <row r="132" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="19"/>
       <c r="B132" s="22"/>
       <c r="C132" s="23"/>
@@ -5785,14 +5898,14 @@
       <c r="F132" s="23"/>
       <c r="G132" s="23"/>
       <c r="H132" s="24"/>
-      <c r="I132" s="25"/>
+      <c r="I132" s="24"/>
       <c r="J132" s="25"/>
       <c r="K132" s="25"/>
-      <c r="L132" s="23"/>
+      <c r="L132" s="25"/>
       <c r="M132" s="23"/>
       <c r="N132" s="23"/>
       <c r="O132" s="23"/>
-      <c r="P132" s="19"/>
+      <c r="P132" s="23"/>
       <c r="Q132" s="19"/>
       <c r="R132" s="19"/>
       <c r="S132" s="19"/>
@@ -5803,8 +5916,9 @@
       <c r="X132" s="19"/>
       <c r="Y132" s="19"/>
       <c r="Z132" s="19"/>
-    </row>
-    <row r="133" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA132" s="19"/>
+    </row>
+    <row r="133" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="19"/>
       <c r="B133" s="22"/>
       <c r="C133" s="23"/>
@@ -5813,14 +5927,14 @@
       <c r="F133" s="23"/>
       <c r="G133" s="23"/>
       <c r="H133" s="24"/>
-      <c r="I133" s="25"/>
+      <c r="I133" s="24"/>
       <c r="J133" s="25"/>
       <c r="K133" s="25"/>
-      <c r="L133" s="23"/>
+      <c r="L133" s="25"/>
       <c r="M133" s="23"/>
       <c r="N133" s="23"/>
       <c r="O133" s="23"/>
-      <c r="P133" s="19"/>
+      <c r="P133" s="23"/>
       <c r="Q133" s="19"/>
       <c r="R133" s="19"/>
       <c r="S133" s="19"/>
@@ -5831,8 +5945,9 @@
       <c r="X133" s="19"/>
       <c r="Y133" s="19"/>
       <c r="Z133" s="19"/>
-    </row>
-    <row r="134" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA133" s="19"/>
+    </row>
+    <row r="134" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="19"/>
       <c r="B134" s="22"/>
       <c r="C134" s="23"/>
@@ -5841,14 +5956,14 @@
       <c r="F134" s="23"/>
       <c r="G134" s="23"/>
       <c r="H134" s="24"/>
-      <c r="I134" s="25"/>
+      <c r="I134" s="24"/>
       <c r="J134" s="25"/>
       <c r="K134" s="25"/>
-      <c r="L134" s="23"/>
+      <c r="L134" s="25"/>
       <c r="M134" s="23"/>
       <c r="N134" s="23"/>
       <c r="O134" s="23"/>
-      <c r="P134" s="19"/>
+      <c r="P134" s="23"/>
       <c r="Q134" s="19"/>
       <c r="R134" s="19"/>
       <c r="S134" s="19"/>
@@ -5859,8 +5974,9 @@
       <c r="X134" s="19"/>
       <c r="Y134" s="19"/>
       <c r="Z134" s="19"/>
-    </row>
-    <row r="135" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA134" s="19"/>
+    </row>
+    <row r="135" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="19"/>
       <c r="B135" s="22"/>
       <c r="C135" s="23"/>
@@ -5869,14 +5985,14 @@
       <c r="F135" s="23"/>
       <c r="G135" s="23"/>
       <c r="H135" s="24"/>
-      <c r="I135" s="25"/>
+      <c r="I135" s="24"/>
       <c r="J135" s="25"/>
       <c r="K135" s="25"/>
-      <c r="L135" s="23"/>
+      <c r="L135" s="25"/>
       <c r="M135" s="23"/>
       <c r="N135" s="23"/>
       <c r="O135" s="23"/>
-      <c r="P135" s="19"/>
+      <c r="P135" s="23"/>
       <c r="Q135" s="19"/>
       <c r="R135" s="19"/>
       <c r="S135" s="19"/>
@@ -5887,8 +6003,9 @@
       <c r="X135" s="19"/>
       <c r="Y135" s="19"/>
       <c r="Z135" s="19"/>
-    </row>
-    <row r="136" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA135" s="19"/>
+    </row>
+    <row r="136" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="19"/>
       <c r="B136" s="22"/>
       <c r="C136" s="23"/>
@@ -5897,14 +6014,14 @@
       <c r="F136" s="23"/>
       <c r="G136" s="23"/>
       <c r="H136" s="24"/>
-      <c r="I136" s="25"/>
+      <c r="I136" s="24"/>
       <c r="J136" s="25"/>
       <c r="K136" s="25"/>
-      <c r="L136" s="23"/>
+      <c r="L136" s="25"/>
       <c r="M136" s="23"/>
       <c r="N136" s="23"/>
       <c r="O136" s="23"/>
-      <c r="P136" s="19"/>
+      <c r="P136" s="23"/>
       <c r="Q136" s="19"/>
       <c r="R136" s="19"/>
       <c r="S136" s="19"/>
@@ -5915,8 +6032,9 @@
       <c r="X136" s="19"/>
       <c r="Y136" s="19"/>
       <c r="Z136" s="19"/>
-    </row>
-    <row r="137" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA136" s="19"/>
+    </row>
+    <row r="137" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="19"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
@@ -5925,14 +6043,14 @@
       <c r="F137" s="23"/>
       <c r="G137" s="23"/>
       <c r="H137" s="24"/>
-      <c r="I137" s="25"/>
+      <c r="I137" s="24"/>
       <c r="J137" s="25"/>
       <c r="K137" s="25"/>
-      <c r="L137" s="23"/>
+      <c r="L137" s="25"/>
       <c r="M137" s="23"/>
       <c r="N137" s="23"/>
       <c r="O137" s="23"/>
-      <c r="P137" s="19"/>
+      <c r="P137" s="23"/>
       <c r="Q137" s="19"/>
       <c r="R137" s="19"/>
       <c r="S137" s="19"/>
@@ -5943,8 +6061,9 @@
       <c r="X137" s="19"/>
       <c r="Y137" s="19"/>
       <c r="Z137" s="19"/>
-    </row>
-    <row r="138" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA137" s="19"/>
+    </row>
+    <row r="138" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="19"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
@@ -5953,14 +6072,14 @@
       <c r="F138" s="23"/>
       <c r="G138" s="23"/>
       <c r="H138" s="24"/>
-      <c r="I138" s="25"/>
+      <c r="I138" s="24"/>
       <c r="J138" s="25"/>
       <c r="K138" s="25"/>
-      <c r="L138" s="23"/>
+      <c r="L138" s="25"/>
       <c r="M138" s="23"/>
       <c r="N138" s="23"/>
       <c r="O138" s="23"/>
-      <c r="P138" s="19"/>
+      <c r="P138" s="23"/>
       <c r="Q138" s="19"/>
       <c r="R138" s="19"/>
       <c r="S138" s="19"/>
@@ -5971,8 +6090,9 @@
       <c r="X138" s="19"/>
       <c r="Y138" s="19"/>
       <c r="Z138" s="19"/>
-    </row>
-    <row r="139" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA138" s="19"/>
+    </row>
+    <row r="139" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="19"/>
       <c r="B139" s="22"/>
       <c r="C139" s="23"/>
@@ -5981,14 +6101,14 @@
       <c r="F139" s="23"/>
       <c r="G139" s="23"/>
       <c r="H139" s="24"/>
-      <c r="I139" s="25"/>
+      <c r="I139" s="24"/>
       <c r="J139" s="25"/>
       <c r="K139" s="25"/>
-      <c r="L139" s="23"/>
+      <c r="L139" s="25"/>
       <c r="M139" s="23"/>
       <c r="N139" s="23"/>
       <c r="O139" s="23"/>
-      <c r="P139" s="19"/>
+      <c r="P139" s="23"/>
       <c r="Q139" s="19"/>
       <c r="R139" s="19"/>
       <c r="S139" s="19"/>
@@ -5999,8 +6119,9 @@
       <c r="X139" s="19"/>
       <c r="Y139" s="19"/>
       <c r="Z139" s="19"/>
-    </row>
-    <row r="140" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA139" s="19"/>
+    </row>
+    <row r="140" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="19"/>
       <c r="B140" s="22"/>
       <c r="C140" s="23"/>
@@ -6009,14 +6130,14 @@
       <c r="F140" s="23"/>
       <c r="G140" s="23"/>
       <c r="H140" s="24"/>
-      <c r="I140" s="25"/>
+      <c r="I140" s="24"/>
       <c r="J140" s="25"/>
       <c r="K140" s="25"/>
-      <c r="L140" s="23"/>
+      <c r="L140" s="25"/>
       <c r="M140" s="23"/>
       <c r="N140" s="23"/>
       <c r="O140" s="23"/>
-      <c r="P140" s="19"/>
+      <c r="P140" s="23"/>
       <c r="Q140" s="19"/>
       <c r="R140" s="19"/>
       <c r="S140" s="19"/>
@@ -6027,8 +6148,9 @@
       <c r="X140" s="19"/>
       <c r="Y140" s="19"/>
       <c r="Z140" s="19"/>
-    </row>
-    <row r="141" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA140" s="19"/>
+    </row>
+    <row r="141" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="19"/>
       <c r="B141" s="22"/>
       <c r="C141" s="23"/>
@@ -6037,14 +6159,14 @@
       <c r="F141" s="23"/>
       <c r="G141" s="23"/>
       <c r="H141" s="24"/>
-      <c r="I141" s="25"/>
+      <c r="I141" s="24"/>
       <c r="J141" s="25"/>
       <c r="K141" s="25"/>
-      <c r="L141" s="23"/>
+      <c r="L141" s="25"/>
       <c r="M141" s="23"/>
       <c r="N141" s="23"/>
       <c r="O141" s="23"/>
-      <c r="P141" s="19"/>
+      <c r="P141" s="23"/>
       <c r="Q141" s="19"/>
       <c r="R141" s="19"/>
       <c r="S141" s="19"/>
@@ -6055,8 +6177,9 @@
       <c r="X141" s="19"/>
       <c r="Y141" s="19"/>
       <c r="Z141" s="19"/>
-    </row>
-    <row r="142" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA141" s="19"/>
+    </row>
+    <row r="142" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="19"/>
       <c r="B142" s="22"/>
       <c r="C142" s="23"/>
@@ -6065,14 +6188,14 @@
       <c r="F142" s="23"/>
       <c r="G142" s="23"/>
       <c r="H142" s="24"/>
-      <c r="I142" s="25"/>
+      <c r="I142" s="24"/>
       <c r="J142" s="25"/>
       <c r="K142" s="25"/>
-      <c r="L142" s="23"/>
+      <c r="L142" s="25"/>
       <c r="M142" s="23"/>
       <c r="N142" s="23"/>
       <c r="O142" s="23"/>
-      <c r="P142" s="19"/>
+      <c r="P142" s="23"/>
       <c r="Q142" s="19"/>
       <c r="R142" s="19"/>
       <c r="S142" s="19"/>
@@ -6083,8 +6206,9 @@
       <c r="X142" s="19"/>
       <c r="Y142" s="19"/>
       <c r="Z142" s="19"/>
-    </row>
-    <row r="143" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA142" s="19"/>
+    </row>
+    <row r="143" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="19"/>
       <c r="B143" s="22"/>
       <c r="C143" s="23"/>
@@ -6093,14 +6217,14 @@
       <c r="F143" s="23"/>
       <c r="G143" s="23"/>
       <c r="H143" s="24"/>
-      <c r="I143" s="25"/>
+      <c r="I143" s="24"/>
       <c r="J143" s="25"/>
       <c r="K143" s="25"/>
-      <c r="L143" s="23"/>
+      <c r="L143" s="25"/>
       <c r="M143" s="23"/>
       <c r="N143" s="23"/>
       <c r="O143" s="23"/>
-      <c r="P143" s="19"/>
+      <c r="P143" s="23"/>
       <c r="Q143" s="19"/>
       <c r="R143" s="19"/>
       <c r="S143" s="19"/>
@@ -6111,8 +6235,9 @@
       <c r="X143" s="19"/>
       <c r="Y143" s="19"/>
       <c r="Z143" s="19"/>
-    </row>
-    <row r="144" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA143" s="19"/>
+    </row>
+    <row r="144" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="19"/>
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
@@ -6121,14 +6246,14 @@
       <c r="F144" s="23"/>
       <c r="G144" s="23"/>
       <c r="H144" s="24"/>
-      <c r="I144" s="25"/>
+      <c r="I144" s="24"/>
       <c r="J144" s="25"/>
       <c r="K144" s="25"/>
-      <c r="L144" s="23"/>
+      <c r="L144" s="25"/>
       <c r="M144" s="23"/>
       <c r="N144" s="23"/>
       <c r="O144" s="23"/>
-      <c r="P144" s="19"/>
+      <c r="P144" s="23"/>
       <c r="Q144" s="19"/>
       <c r="R144" s="19"/>
       <c r="S144" s="19"/>
@@ -6139,8 +6264,9 @@
       <c r="X144" s="19"/>
       <c r="Y144" s="19"/>
       <c r="Z144" s="19"/>
-    </row>
-    <row r="145" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA144" s="19"/>
+    </row>
+    <row r="145" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="19"/>
       <c r="B145" s="22"/>
       <c r="C145" s="23"/>
@@ -6149,14 +6275,14 @@
       <c r="F145" s="23"/>
       <c r="G145" s="23"/>
       <c r="H145" s="24"/>
-      <c r="I145" s="25"/>
+      <c r="I145" s="24"/>
       <c r="J145" s="25"/>
       <c r="K145" s="25"/>
-      <c r="L145" s="23"/>
+      <c r="L145" s="25"/>
       <c r="M145" s="23"/>
       <c r="N145" s="23"/>
       <c r="O145" s="23"/>
-      <c r="P145" s="19"/>
+      <c r="P145" s="23"/>
       <c r="Q145" s="19"/>
       <c r="R145" s="19"/>
       <c r="S145" s="19"/>
@@ -6167,8 +6293,9 @@
       <c r="X145" s="19"/>
       <c r="Y145" s="19"/>
       <c r="Z145" s="19"/>
-    </row>
-    <row r="146" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA145" s="19"/>
+    </row>
+    <row r="146" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="19"/>
       <c r="B146" s="22"/>
       <c r="C146" s="23"/>
@@ -6177,14 +6304,14 @@
       <c r="F146" s="23"/>
       <c r="G146" s="23"/>
       <c r="H146" s="24"/>
-      <c r="I146" s="25"/>
+      <c r="I146" s="24"/>
       <c r="J146" s="25"/>
       <c r="K146" s="25"/>
-      <c r="L146" s="23"/>
+      <c r="L146" s="25"/>
       <c r="M146" s="23"/>
       <c r="N146" s="23"/>
       <c r="O146" s="23"/>
-      <c r="P146" s="19"/>
+      <c r="P146" s="23"/>
       <c r="Q146" s="19"/>
       <c r="R146" s="19"/>
       <c r="S146" s="19"/>
@@ -6195,8 +6322,9 @@
       <c r="X146" s="19"/>
       <c r="Y146" s="19"/>
       <c r="Z146" s="19"/>
-    </row>
-    <row r="147" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA146" s="19"/>
+    </row>
+    <row r="147" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="19"/>
       <c r="B147" s="22"/>
       <c r="C147" s="23"/>
@@ -6205,14 +6333,14 @@
       <c r="F147" s="23"/>
       <c r="G147" s="23"/>
       <c r="H147" s="24"/>
-      <c r="I147" s="25"/>
+      <c r="I147" s="24"/>
       <c r="J147" s="25"/>
       <c r="K147" s="25"/>
-      <c r="L147" s="23"/>
+      <c r="L147" s="25"/>
       <c r="M147" s="23"/>
       <c r="N147" s="23"/>
       <c r="O147" s="23"/>
-      <c r="P147" s="19"/>
+      <c r="P147" s="23"/>
       <c r="Q147" s="19"/>
       <c r="R147" s="19"/>
       <c r="S147" s="19"/>
@@ -6223,8 +6351,9 @@
       <c r="X147" s="19"/>
       <c r="Y147" s="19"/>
       <c r="Z147" s="19"/>
-    </row>
-    <row r="148" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA147" s="19"/>
+    </row>
+    <row r="148" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="19"/>
       <c r="B148" s="22"/>
       <c r="C148" s="23"/>
@@ -6233,14 +6362,14 @@
       <c r="F148" s="23"/>
       <c r="G148" s="23"/>
       <c r="H148" s="24"/>
-      <c r="I148" s="25"/>
+      <c r="I148" s="24"/>
       <c r="J148" s="25"/>
       <c r="K148" s="25"/>
-      <c r="L148" s="23"/>
+      <c r="L148" s="25"/>
       <c r="M148" s="23"/>
       <c r="N148" s="23"/>
       <c r="O148" s="23"/>
-      <c r="P148" s="19"/>
+      <c r="P148" s="23"/>
       <c r="Q148" s="19"/>
       <c r="R148" s="19"/>
       <c r="S148" s="19"/>
@@ -6251,8 +6380,9 @@
       <c r="X148" s="19"/>
       <c r="Y148" s="19"/>
       <c r="Z148" s="19"/>
-    </row>
-    <row r="149" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA148" s="19"/>
+    </row>
+    <row r="149" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="19"/>
       <c r="B149" s="22"/>
       <c r="C149" s="23"/>
@@ -6261,14 +6391,14 @@
       <c r="F149" s="23"/>
       <c r="G149" s="23"/>
       <c r="H149" s="24"/>
-      <c r="I149" s="25"/>
+      <c r="I149" s="24"/>
       <c r="J149" s="25"/>
       <c r="K149" s="25"/>
-      <c r="L149" s="23"/>
+      <c r="L149" s="25"/>
       <c r="M149" s="23"/>
       <c r="N149" s="23"/>
       <c r="O149" s="23"/>
-      <c r="P149" s="19"/>
+      <c r="P149" s="23"/>
       <c r="Q149" s="19"/>
       <c r="R149" s="19"/>
       <c r="S149" s="19"/>
@@ -6279,8 +6409,9 @@
       <c r="X149" s="19"/>
       <c r="Y149" s="19"/>
       <c r="Z149" s="19"/>
-    </row>
-    <row r="150" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA149" s="19"/>
+    </row>
+    <row r="150" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="19"/>
       <c r="B150" s="22"/>
       <c r="C150" s="23"/>
@@ -6289,14 +6420,14 @@
       <c r="F150" s="23"/>
       <c r="G150" s="23"/>
       <c r="H150" s="24"/>
-      <c r="I150" s="25"/>
+      <c r="I150" s="24"/>
       <c r="J150" s="25"/>
       <c r="K150" s="25"/>
-      <c r="L150" s="23"/>
+      <c r="L150" s="25"/>
       <c r="M150" s="23"/>
       <c r="N150" s="23"/>
       <c r="O150" s="23"/>
-      <c r="P150" s="19"/>
+      <c r="P150" s="23"/>
       <c r="Q150" s="19"/>
       <c r="R150" s="19"/>
       <c r="S150" s="19"/>
@@ -6307,8 +6438,9 @@
       <c r="X150" s="19"/>
       <c r="Y150" s="19"/>
       <c r="Z150" s="19"/>
-    </row>
-    <row r="151" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA150" s="19"/>
+    </row>
+    <row r="151" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="19"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
@@ -6317,14 +6449,14 @@
       <c r="F151" s="23"/>
       <c r="G151" s="23"/>
       <c r="H151" s="24"/>
-      <c r="I151" s="25"/>
+      <c r="I151" s="24"/>
       <c r="J151" s="25"/>
       <c r="K151" s="25"/>
-      <c r="L151" s="23"/>
+      <c r="L151" s="25"/>
       <c r="M151" s="23"/>
       <c r="N151" s="23"/>
       <c r="O151" s="23"/>
-      <c r="P151" s="19"/>
+      <c r="P151" s="23"/>
       <c r="Q151" s="19"/>
       <c r="R151" s="19"/>
       <c r="S151" s="19"/>
@@ -6335,8 +6467,9 @@
       <c r="X151" s="19"/>
       <c r="Y151" s="19"/>
       <c r="Z151" s="19"/>
-    </row>
-    <row r="152" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA151" s="19"/>
+    </row>
+    <row r="152" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="19"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
@@ -6345,14 +6478,14 @@
       <c r="F152" s="23"/>
       <c r="G152" s="23"/>
       <c r="H152" s="24"/>
-      <c r="I152" s="25"/>
+      <c r="I152" s="24"/>
       <c r="J152" s="25"/>
       <c r="K152" s="25"/>
-      <c r="L152" s="23"/>
+      <c r="L152" s="25"/>
       <c r="M152" s="23"/>
       <c r="N152" s="23"/>
       <c r="O152" s="23"/>
-      <c r="P152" s="19"/>
+      <c r="P152" s="23"/>
       <c r="Q152" s="19"/>
       <c r="R152" s="19"/>
       <c r="S152" s="19"/>
@@ -6363,8 +6496,9 @@
       <c r="X152" s="19"/>
       <c r="Y152" s="19"/>
       <c r="Z152" s="19"/>
-    </row>
-    <row r="153" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA152" s="19"/>
+    </row>
+    <row r="153" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="19"/>
       <c r="B153" s="22"/>
       <c r="C153" s="23"/>
@@ -6373,14 +6507,14 @@
       <c r="F153" s="23"/>
       <c r="G153" s="23"/>
       <c r="H153" s="24"/>
-      <c r="I153" s="25"/>
+      <c r="I153" s="24"/>
       <c r="J153" s="25"/>
       <c r="K153" s="25"/>
-      <c r="L153" s="23"/>
+      <c r="L153" s="25"/>
       <c r="M153" s="23"/>
       <c r="N153" s="23"/>
       <c r="O153" s="23"/>
-      <c r="P153" s="19"/>
+      <c r="P153" s="23"/>
       <c r="Q153" s="19"/>
       <c r="R153" s="19"/>
       <c r="S153" s="19"/>
@@ -6391,8 +6525,9 @@
       <c r="X153" s="19"/>
       <c r="Y153" s="19"/>
       <c r="Z153" s="19"/>
-    </row>
-    <row r="154" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA153" s="19"/>
+    </row>
+    <row r="154" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="19"/>
       <c r="B154" s="22"/>
       <c r="C154" s="23"/>
@@ -6401,14 +6536,14 @@
       <c r="F154" s="23"/>
       <c r="G154" s="23"/>
       <c r="H154" s="24"/>
-      <c r="I154" s="25"/>
+      <c r="I154" s="24"/>
       <c r="J154" s="25"/>
       <c r="K154" s="25"/>
-      <c r="L154" s="23"/>
+      <c r="L154" s="25"/>
       <c r="M154" s="23"/>
       <c r="N154" s="23"/>
       <c r="O154" s="23"/>
-      <c r="P154" s="19"/>
+      <c r="P154" s="23"/>
       <c r="Q154" s="19"/>
       <c r="R154" s="19"/>
       <c r="S154" s="19"/>
@@ -6419,8 +6554,9 @@
       <c r="X154" s="19"/>
       <c r="Y154" s="19"/>
       <c r="Z154" s="19"/>
-    </row>
-    <row r="155" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA154" s="19"/>
+    </row>
+    <row r="155" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="19"/>
       <c r="B155" s="22"/>
       <c r="C155" s="23"/>
@@ -6429,14 +6565,14 @@
       <c r="F155" s="23"/>
       <c r="G155" s="23"/>
       <c r="H155" s="24"/>
-      <c r="I155" s="25"/>
+      <c r="I155" s="24"/>
       <c r="J155" s="25"/>
       <c r="K155" s="25"/>
-      <c r="L155" s="23"/>
+      <c r="L155" s="25"/>
       <c r="M155" s="23"/>
       <c r="N155" s="23"/>
       <c r="O155" s="23"/>
-      <c r="P155" s="19"/>
+      <c r="P155" s="23"/>
       <c r="Q155" s="19"/>
       <c r="R155" s="19"/>
       <c r="S155" s="19"/>
@@ -6447,8 +6583,9 @@
       <c r="X155" s="19"/>
       <c r="Y155" s="19"/>
       <c r="Z155" s="19"/>
-    </row>
-    <row r="156" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA155" s="19"/>
+    </row>
+    <row r="156" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="19"/>
       <c r="B156" s="22"/>
       <c r="C156" s="23"/>
@@ -6457,14 +6594,14 @@
       <c r="F156" s="23"/>
       <c r="G156" s="23"/>
       <c r="H156" s="24"/>
-      <c r="I156" s="25"/>
+      <c r="I156" s="24"/>
       <c r="J156" s="25"/>
       <c r="K156" s="25"/>
-      <c r="L156" s="23"/>
+      <c r="L156" s="25"/>
       <c r="M156" s="23"/>
       <c r="N156" s="23"/>
       <c r="O156" s="23"/>
-      <c r="P156" s="19"/>
+      <c r="P156" s="23"/>
       <c r="Q156" s="19"/>
       <c r="R156" s="19"/>
       <c r="S156" s="19"/>
@@ -6475,8 +6612,9 @@
       <c r="X156" s="19"/>
       <c r="Y156" s="19"/>
       <c r="Z156" s="19"/>
-    </row>
-    <row r="157" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA156" s="19"/>
+    </row>
+    <row r="157" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="19"/>
       <c r="B157" s="22"/>
       <c r="C157" s="23"/>
@@ -6485,14 +6623,14 @@
       <c r="F157" s="23"/>
       <c r="G157" s="23"/>
       <c r="H157" s="24"/>
-      <c r="I157" s="25"/>
+      <c r="I157" s="24"/>
       <c r="J157" s="25"/>
       <c r="K157" s="25"/>
-      <c r="L157" s="23"/>
+      <c r="L157" s="25"/>
       <c r="M157" s="23"/>
       <c r="N157" s="23"/>
       <c r="O157" s="23"/>
-      <c r="P157" s="19"/>
+      <c r="P157" s="23"/>
       <c r="Q157" s="19"/>
       <c r="R157" s="19"/>
       <c r="S157" s="19"/>
@@ -6503,8 +6641,9 @@
       <c r="X157" s="19"/>
       <c r="Y157" s="19"/>
       <c r="Z157" s="19"/>
-    </row>
-    <row r="158" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA157" s="19"/>
+    </row>
+    <row r="158" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="19"/>
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
@@ -6513,14 +6652,14 @@
       <c r="F158" s="23"/>
       <c r="G158" s="23"/>
       <c r="H158" s="24"/>
-      <c r="I158" s="25"/>
+      <c r="I158" s="24"/>
       <c r="J158" s="25"/>
       <c r="K158" s="25"/>
-      <c r="L158" s="23"/>
+      <c r="L158" s="25"/>
       <c r="M158" s="23"/>
       <c r="N158" s="23"/>
       <c r="O158" s="23"/>
-      <c r="P158" s="19"/>
+      <c r="P158" s="23"/>
       <c r="Q158" s="19"/>
       <c r="R158" s="19"/>
       <c r="S158" s="19"/>
@@ -6531,8 +6670,9 @@
       <c r="X158" s="19"/>
       <c r="Y158" s="19"/>
       <c r="Z158" s="19"/>
-    </row>
-    <row r="159" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA158" s="19"/>
+    </row>
+    <row r="159" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="19"/>
       <c r="B159" s="22"/>
       <c r="C159" s="23"/>
@@ -6541,14 +6681,14 @@
       <c r="F159" s="23"/>
       <c r="G159" s="23"/>
       <c r="H159" s="24"/>
-      <c r="I159" s="25"/>
+      <c r="I159" s="24"/>
       <c r="J159" s="25"/>
       <c r="K159" s="25"/>
-      <c r="L159" s="23"/>
+      <c r="L159" s="25"/>
       <c r="M159" s="23"/>
       <c r="N159" s="23"/>
       <c r="O159" s="23"/>
-      <c r="P159" s="19"/>
+      <c r="P159" s="23"/>
       <c r="Q159" s="19"/>
       <c r="R159" s="19"/>
       <c r="S159" s="19"/>
@@ -6559,8 +6699,9 @@
       <c r="X159" s="19"/>
       <c r="Y159" s="19"/>
       <c r="Z159" s="19"/>
-    </row>
-    <row r="160" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA159" s="19"/>
+    </row>
+    <row r="160" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="19"/>
       <c r="B160" s="22"/>
       <c r="C160" s="23"/>
@@ -6569,14 +6710,14 @@
       <c r="F160" s="23"/>
       <c r="G160" s="23"/>
       <c r="H160" s="24"/>
-      <c r="I160" s="25"/>
+      <c r="I160" s="24"/>
       <c r="J160" s="25"/>
       <c r="K160" s="25"/>
-      <c r="L160" s="23"/>
+      <c r="L160" s="25"/>
       <c r="M160" s="23"/>
       <c r="N160" s="23"/>
       <c r="O160" s="23"/>
-      <c r="P160" s="19"/>
+      <c r="P160" s="23"/>
       <c r="Q160" s="19"/>
       <c r="R160" s="19"/>
       <c r="S160" s="19"/>
@@ -6587,8 +6728,9 @@
       <c r="X160" s="19"/>
       <c r="Y160" s="19"/>
       <c r="Z160" s="19"/>
-    </row>
-    <row r="161" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA160" s="19"/>
+    </row>
+    <row r="161" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="19"/>
       <c r="B161" s="22"/>
       <c r="C161" s="23"/>
@@ -6597,14 +6739,14 @@
       <c r="F161" s="23"/>
       <c r="G161" s="23"/>
       <c r="H161" s="24"/>
-      <c r="I161" s="25"/>
+      <c r="I161" s="24"/>
       <c r="J161" s="25"/>
       <c r="K161" s="25"/>
-      <c r="L161" s="23"/>
+      <c r="L161" s="25"/>
       <c r="M161" s="23"/>
       <c r="N161" s="23"/>
       <c r="O161" s="23"/>
-      <c r="P161" s="19"/>
+      <c r="P161" s="23"/>
       <c r="Q161" s="19"/>
       <c r="R161" s="19"/>
       <c r="S161" s="19"/>
@@ -6615,8 +6757,9 @@
       <c r="X161" s="19"/>
       <c r="Y161" s="19"/>
       <c r="Z161" s="19"/>
-    </row>
-    <row r="162" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA161" s="19"/>
+    </row>
+    <row r="162" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="19"/>
       <c r="B162" s="22"/>
       <c r="C162" s="23"/>
@@ -6625,14 +6768,14 @@
       <c r="F162" s="23"/>
       <c r="G162" s="23"/>
       <c r="H162" s="24"/>
-      <c r="I162" s="25"/>
+      <c r="I162" s="24"/>
       <c r="J162" s="25"/>
       <c r="K162" s="25"/>
-      <c r="L162" s="23"/>
+      <c r="L162" s="25"/>
       <c r="M162" s="23"/>
       <c r="N162" s="23"/>
       <c r="O162" s="23"/>
-      <c r="P162" s="19"/>
+      <c r="P162" s="23"/>
       <c r="Q162" s="19"/>
       <c r="R162" s="19"/>
       <c r="S162" s="19"/>
@@ -6643,8 +6786,9 @@
       <c r="X162" s="19"/>
       <c r="Y162" s="19"/>
       <c r="Z162" s="19"/>
-    </row>
-    <row r="163" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA162" s="19"/>
+    </row>
+    <row r="163" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="19"/>
       <c r="B163" s="22"/>
       <c r="C163" s="23"/>
@@ -6653,14 +6797,14 @@
       <c r="F163" s="23"/>
       <c r="G163" s="23"/>
       <c r="H163" s="24"/>
-      <c r="I163" s="25"/>
+      <c r="I163" s="24"/>
       <c r="J163" s="25"/>
       <c r="K163" s="25"/>
-      <c r="L163" s="23"/>
+      <c r="L163" s="25"/>
       <c r="M163" s="23"/>
       <c r="N163" s="23"/>
       <c r="O163" s="23"/>
-      <c r="P163" s="19"/>
+      <c r="P163" s="23"/>
       <c r="Q163" s="19"/>
       <c r="R163" s="19"/>
       <c r="S163" s="19"/>
@@ -6671,8 +6815,9 @@
       <c r="X163" s="19"/>
       <c r="Y163" s="19"/>
       <c r="Z163" s="19"/>
-    </row>
-    <row r="164" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA163" s="19"/>
+    </row>
+    <row r="164" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="19"/>
       <c r="B164" s="22"/>
       <c r="C164" s="23"/>
@@ -6681,14 +6826,14 @@
       <c r="F164" s="23"/>
       <c r="G164" s="23"/>
       <c r="H164" s="24"/>
-      <c r="I164" s="25"/>
+      <c r="I164" s="24"/>
       <c r="J164" s="25"/>
       <c r="K164" s="25"/>
-      <c r="L164" s="23"/>
+      <c r="L164" s="25"/>
       <c r="M164" s="23"/>
       <c r="N164" s="23"/>
       <c r="O164" s="23"/>
-      <c r="P164" s="19"/>
+      <c r="P164" s="23"/>
       <c r="Q164" s="19"/>
       <c r="R164" s="19"/>
       <c r="S164" s="19"/>
@@ -6699,8 +6844,9 @@
       <c r="X164" s="19"/>
       <c r="Y164" s="19"/>
       <c r="Z164" s="19"/>
-    </row>
-    <row r="165" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA164" s="19"/>
+    </row>
+    <row r="165" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="19"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
@@ -6709,14 +6855,14 @@
       <c r="F165" s="23"/>
       <c r="G165" s="23"/>
       <c r="H165" s="24"/>
-      <c r="I165" s="25"/>
+      <c r="I165" s="24"/>
       <c r="J165" s="25"/>
       <c r="K165" s="25"/>
-      <c r="L165" s="23"/>
+      <c r="L165" s="25"/>
       <c r="M165" s="23"/>
       <c r="N165" s="23"/>
       <c r="O165" s="23"/>
-      <c r="P165" s="19"/>
+      <c r="P165" s="23"/>
       <c r="Q165" s="19"/>
       <c r="R165" s="19"/>
       <c r="S165" s="19"/>
@@ -6727,8 +6873,9 @@
       <c r="X165" s="19"/>
       <c r="Y165" s="19"/>
       <c r="Z165" s="19"/>
-    </row>
-    <row r="166" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA165" s="19"/>
+    </row>
+    <row r="166" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="19"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
@@ -6737,14 +6884,14 @@
       <c r="F166" s="23"/>
       <c r="G166" s="23"/>
       <c r="H166" s="24"/>
-      <c r="I166" s="25"/>
+      <c r="I166" s="24"/>
       <c r="J166" s="25"/>
       <c r="K166" s="25"/>
-      <c r="L166" s="23"/>
+      <c r="L166" s="25"/>
       <c r="M166" s="23"/>
       <c r="N166" s="23"/>
       <c r="O166" s="23"/>
-      <c r="P166" s="19"/>
+      <c r="P166" s="23"/>
       <c r="Q166" s="19"/>
       <c r="R166" s="19"/>
       <c r="S166" s="19"/>
@@ -6755,8 +6902,9 @@
       <c r="X166" s="19"/>
       <c r="Y166" s="19"/>
       <c r="Z166" s="19"/>
-    </row>
-    <row r="167" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA166" s="19"/>
+    </row>
+    <row r="167" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="19"/>
       <c r="B167" s="22"/>
       <c r="C167" s="23"/>
@@ -6765,14 +6913,14 @@
       <c r="F167" s="23"/>
       <c r="G167" s="23"/>
       <c r="H167" s="24"/>
-      <c r="I167" s="25"/>
+      <c r="I167" s="24"/>
       <c r="J167" s="25"/>
       <c r="K167" s="25"/>
-      <c r="L167" s="23"/>
+      <c r="L167" s="25"/>
       <c r="M167" s="23"/>
       <c r="N167" s="23"/>
       <c r="O167" s="23"/>
-      <c r="P167" s="19"/>
+      <c r="P167" s="23"/>
       <c r="Q167" s="19"/>
       <c r="R167" s="19"/>
       <c r="S167" s="19"/>
@@ -6783,8 +6931,9 @@
       <c r="X167" s="19"/>
       <c r="Y167" s="19"/>
       <c r="Z167" s="19"/>
-    </row>
-    <row r="168" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA167" s="19"/>
+    </row>
+    <row r="168" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="19"/>
       <c r="B168" s="22"/>
       <c r="C168" s="23"/>
@@ -6793,14 +6942,14 @@
       <c r="F168" s="23"/>
       <c r="G168" s="23"/>
       <c r="H168" s="24"/>
-      <c r="I168" s="25"/>
+      <c r="I168" s="24"/>
       <c r="J168" s="25"/>
       <c r="K168" s="25"/>
-      <c r="L168" s="23"/>
+      <c r="L168" s="25"/>
       <c r="M168" s="23"/>
       <c r="N168" s="23"/>
       <c r="O168" s="23"/>
-      <c r="P168" s="19"/>
+      <c r="P168" s="23"/>
       <c r="Q168" s="19"/>
       <c r="R168" s="19"/>
       <c r="S168" s="19"/>
@@ -6811,8 +6960,9 @@
       <c r="X168" s="19"/>
       <c r="Y168" s="19"/>
       <c r="Z168" s="19"/>
-    </row>
-    <row r="169" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA168" s="19"/>
+    </row>
+    <row r="169" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="19"/>
       <c r="B169" s="22"/>
       <c r="C169" s="23"/>
@@ -6821,14 +6971,14 @@
       <c r="F169" s="23"/>
       <c r="G169" s="23"/>
       <c r="H169" s="24"/>
-      <c r="I169" s="25"/>
+      <c r="I169" s="24"/>
       <c r="J169" s="25"/>
       <c r="K169" s="25"/>
-      <c r="L169" s="23"/>
+      <c r="L169" s="25"/>
       <c r="M169" s="23"/>
       <c r="N169" s="23"/>
       <c r="O169" s="23"/>
-      <c r="P169" s="19"/>
+      <c r="P169" s="23"/>
       <c r="Q169" s="19"/>
       <c r="R169" s="19"/>
       <c r="S169" s="19"/>
@@ -6839,8 +6989,9 @@
       <c r="X169" s="19"/>
       <c r="Y169" s="19"/>
       <c r="Z169" s="19"/>
-    </row>
-    <row r="170" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA169" s="19"/>
+    </row>
+    <row r="170" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="19"/>
       <c r="B170" s="22"/>
       <c r="C170" s="23"/>
@@ -6849,14 +7000,14 @@
       <c r="F170" s="23"/>
       <c r="G170" s="23"/>
       <c r="H170" s="24"/>
-      <c r="I170" s="25"/>
+      <c r="I170" s="24"/>
       <c r="J170" s="25"/>
       <c r="K170" s="25"/>
-      <c r="L170" s="23"/>
+      <c r="L170" s="25"/>
       <c r="M170" s="23"/>
       <c r="N170" s="23"/>
       <c r="O170" s="23"/>
-      <c r="P170" s="19"/>
+      <c r="P170" s="23"/>
       <c r="Q170" s="19"/>
       <c r="R170" s="19"/>
       <c r="S170" s="19"/>
@@ -6867,8 +7018,9 @@
       <c r="X170" s="19"/>
       <c r="Y170" s="19"/>
       <c r="Z170" s="19"/>
-    </row>
-    <row r="171" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA170" s="19"/>
+    </row>
+    <row r="171" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="19"/>
       <c r="B171" s="22"/>
       <c r="C171" s="23"/>
@@ -6877,14 +7029,14 @@
       <c r="F171" s="23"/>
       <c r="G171" s="23"/>
       <c r="H171" s="24"/>
-      <c r="I171" s="25"/>
+      <c r="I171" s="24"/>
       <c r="J171" s="25"/>
       <c r="K171" s="25"/>
-      <c r="L171" s="23"/>
+      <c r="L171" s="25"/>
       <c r="M171" s="23"/>
       <c r="N171" s="23"/>
       <c r="O171" s="23"/>
-      <c r="P171" s="19"/>
+      <c r="P171" s="23"/>
       <c r="Q171" s="19"/>
       <c r="R171" s="19"/>
       <c r="S171" s="19"/>
@@ -6895,8 +7047,9 @@
       <c r="X171" s="19"/>
       <c r="Y171" s="19"/>
       <c r="Z171" s="19"/>
-    </row>
-    <row r="172" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA171" s="19"/>
+    </row>
+    <row r="172" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="19"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
@@ -6905,14 +7058,14 @@
       <c r="F172" s="23"/>
       <c r="G172" s="23"/>
       <c r="H172" s="24"/>
-      <c r="I172" s="25"/>
+      <c r="I172" s="24"/>
       <c r="J172" s="25"/>
       <c r="K172" s="25"/>
-      <c r="L172" s="23"/>
+      <c r="L172" s="25"/>
       <c r="M172" s="23"/>
       <c r="N172" s="23"/>
       <c r="O172" s="23"/>
-      <c r="P172" s="19"/>
+      <c r="P172" s="23"/>
       <c r="Q172" s="19"/>
       <c r="R172" s="19"/>
       <c r="S172" s="19"/>
@@ -6923,8 +7076,9 @@
       <c r="X172" s="19"/>
       <c r="Y172" s="19"/>
       <c r="Z172" s="19"/>
-    </row>
-    <row r="173" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA172" s="19"/>
+    </row>
+    <row r="173" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="19"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
@@ -6933,14 +7087,14 @@
       <c r="F173" s="23"/>
       <c r="G173" s="23"/>
       <c r="H173" s="24"/>
-      <c r="I173" s="25"/>
+      <c r="I173" s="24"/>
       <c r="J173" s="25"/>
       <c r="K173" s="25"/>
-      <c r="L173" s="23"/>
+      <c r="L173" s="25"/>
       <c r="M173" s="23"/>
       <c r="N173" s="23"/>
       <c r="O173" s="23"/>
-      <c r="P173" s="19"/>
+      <c r="P173" s="23"/>
       <c r="Q173" s="19"/>
       <c r="R173" s="19"/>
       <c r="S173" s="19"/>
@@ -6951,8 +7105,9 @@
       <c r="X173" s="19"/>
       <c r="Y173" s="19"/>
       <c r="Z173" s="19"/>
-    </row>
-    <row r="174" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA173" s="19"/>
+    </row>
+    <row r="174" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="19"/>
       <c r="B174" s="22"/>
       <c r="C174" s="23"/>
@@ -6961,14 +7116,14 @@
       <c r="F174" s="23"/>
       <c r="G174" s="23"/>
       <c r="H174" s="24"/>
-      <c r="I174" s="25"/>
+      <c r="I174" s="24"/>
       <c r="J174" s="25"/>
       <c r="K174" s="25"/>
-      <c r="L174" s="23"/>
+      <c r="L174" s="25"/>
       <c r="M174" s="23"/>
       <c r="N174" s="23"/>
       <c r="O174" s="23"/>
-      <c r="P174" s="19"/>
+      <c r="P174" s="23"/>
       <c r="Q174" s="19"/>
       <c r="R174" s="19"/>
       <c r="S174" s="19"/>
@@ -6979,8 +7134,9 @@
       <c r="X174" s="19"/>
       <c r="Y174" s="19"/>
       <c r="Z174" s="19"/>
-    </row>
-    <row r="175" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA174" s="19"/>
+    </row>
+    <row r="175" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="19"/>
       <c r="B175" s="22"/>
       <c r="C175" s="23"/>
@@ -6989,14 +7145,14 @@
       <c r="F175" s="23"/>
       <c r="G175" s="23"/>
       <c r="H175" s="24"/>
-      <c r="I175" s="25"/>
+      <c r="I175" s="24"/>
       <c r="J175" s="25"/>
       <c r="K175" s="25"/>
-      <c r="L175" s="23"/>
+      <c r="L175" s="25"/>
       <c r="M175" s="23"/>
       <c r="N175" s="23"/>
       <c r="O175" s="23"/>
-      <c r="P175" s="19"/>
+      <c r="P175" s="23"/>
       <c r="Q175" s="19"/>
       <c r="R175" s="19"/>
       <c r="S175" s="19"/>
@@ -7007,8 +7163,9 @@
       <c r="X175" s="19"/>
       <c r="Y175" s="19"/>
       <c r="Z175" s="19"/>
-    </row>
-    <row r="176" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA175" s="19"/>
+    </row>
+    <row r="176" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="19"/>
       <c r="B176" s="22"/>
       <c r="C176" s="23"/>
@@ -7017,14 +7174,14 @@
       <c r="F176" s="23"/>
       <c r="G176" s="23"/>
       <c r="H176" s="24"/>
-      <c r="I176" s="25"/>
+      <c r="I176" s="24"/>
       <c r="J176" s="25"/>
       <c r="K176" s="25"/>
-      <c r="L176" s="23"/>
+      <c r="L176" s="25"/>
       <c r="M176" s="23"/>
       <c r="N176" s="23"/>
       <c r="O176" s="23"/>
-      <c r="P176" s="19"/>
+      <c r="P176" s="23"/>
       <c r="Q176" s="19"/>
       <c r="R176" s="19"/>
       <c r="S176" s="19"/>
@@ -7035,8 +7192,9 @@
       <c r="X176" s="19"/>
       <c r="Y176" s="19"/>
       <c r="Z176" s="19"/>
-    </row>
-    <row r="177" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA176" s="19"/>
+    </row>
+    <row r="177" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="19"/>
       <c r="B177" s="22"/>
       <c r="C177" s="23"/>
@@ -7045,14 +7203,14 @@
       <c r="F177" s="23"/>
       <c r="G177" s="23"/>
       <c r="H177" s="24"/>
-      <c r="I177" s="25"/>
+      <c r="I177" s="24"/>
       <c r="J177" s="25"/>
       <c r="K177" s="25"/>
-      <c r="L177" s="23"/>
+      <c r="L177" s="25"/>
       <c r="M177" s="23"/>
       <c r="N177" s="23"/>
       <c r="O177" s="23"/>
-      <c r="P177" s="19"/>
+      <c r="P177" s="23"/>
       <c r="Q177" s="19"/>
       <c r="R177" s="19"/>
       <c r="S177" s="19"/>
@@ -7063,8 +7221,9 @@
       <c r="X177" s="19"/>
       <c r="Y177" s="19"/>
       <c r="Z177" s="19"/>
-    </row>
-    <row r="178" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA177" s="19"/>
+    </row>
+    <row r="178" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="19"/>
       <c r="B178" s="22"/>
       <c r="C178" s="23"/>
@@ -7073,14 +7232,14 @@
       <c r="F178" s="23"/>
       <c r="G178" s="23"/>
       <c r="H178" s="24"/>
-      <c r="I178" s="25"/>
+      <c r="I178" s="24"/>
       <c r="J178" s="25"/>
       <c r="K178" s="25"/>
-      <c r="L178" s="23"/>
+      <c r="L178" s="25"/>
       <c r="M178" s="23"/>
       <c r="N178" s="23"/>
       <c r="O178" s="23"/>
-      <c r="P178" s="19"/>
+      <c r="P178" s="23"/>
       <c r="Q178" s="19"/>
       <c r="R178" s="19"/>
       <c r="S178" s="19"/>
@@ -7091,8 +7250,9 @@
       <c r="X178" s="19"/>
       <c r="Y178" s="19"/>
       <c r="Z178" s="19"/>
-    </row>
-    <row r="179" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA178" s="19"/>
+    </row>
+    <row r="179" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="19"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
@@ -7101,14 +7261,14 @@
       <c r="F179" s="23"/>
       <c r="G179" s="23"/>
       <c r="H179" s="24"/>
-      <c r="I179" s="25"/>
+      <c r="I179" s="24"/>
       <c r="J179" s="25"/>
       <c r="K179" s="25"/>
-      <c r="L179" s="23"/>
+      <c r="L179" s="25"/>
       <c r="M179" s="23"/>
       <c r="N179" s="23"/>
       <c r="O179" s="23"/>
-      <c r="P179" s="19"/>
+      <c r="P179" s="23"/>
       <c r="Q179" s="19"/>
       <c r="R179" s="19"/>
       <c r="S179" s="19"/>
@@ -7119,8 +7279,9 @@
       <c r="X179" s="19"/>
       <c r="Y179" s="19"/>
       <c r="Z179" s="19"/>
-    </row>
-    <row r="180" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA179" s="19"/>
+    </row>
+    <row r="180" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="19"/>
       <c r="B180" s="22"/>
       <c r="C180" s="23"/>
@@ -7129,14 +7290,14 @@
       <c r="F180" s="23"/>
       <c r="G180" s="23"/>
       <c r="H180" s="24"/>
-      <c r="I180" s="25"/>
+      <c r="I180" s="24"/>
       <c r="J180" s="25"/>
       <c r="K180" s="25"/>
-      <c r="L180" s="23"/>
+      <c r="L180" s="25"/>
       <c r="M180" s="23"/>
       <c r="N180" s="23"/>
       <c r="O180" s="23"/>
-      <c r="P180" s="19"/>
+      <c r="P180" s="23"/>
       <c r="Q180" s="19"/>
       <c r="R180" s="19"/>
       <c r="S180" s="19"/>
@@ -7147,8 +7308,9 @@
       <c r="X180" s="19"/>
       <c r="Y180" s="19"/>
       <c r="Z180" s="19"/>
-    </row>
-    <row r="181" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA180" s="19"/>
+    </row>
+    <row r="181" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="19"/>
       <c r="B181" s="22"/>
       <c r="C181" s="23"/>
@@ -7157,14 +7319,14 @@
       <c r="F181" s="23"/>
       <c r="G181" s="23"/>
       <c r="H181" s="24"/>
-      <c r="I181" s="25"/>
+      <c r="I181" s="24"/>
       <c r="J181" s="25"/>
       <c r="K181" s="25"/>
-      <c r="L181" s="23"/>
+      <c r="L181" s="25"/>
       <c r="M181" s="23"/>
       <c r="N181" s="23"/>
       <c r="O181" s="23"/>
-      <c r="P181" s="19"/>
+      <c r="P181" s="23"/>
       <c r="Q181" s="19"/>
       <c r="R181" s="19"/>
       <c r="S181" s="19"/>
@@ -7175,8 +7337,9 @@
       <c r="X181" s="19"/>
       <c r="Y181" s="19"/>
       <c r="Z181" s="19"/>
-    </row>
-    <row r="182" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA181" s="19"/>
+    </row>
+    <row r="182" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="19"/>
       <c r="B182" s="22"/>
       <c r="C182" s="23"/>
@@ -7185,14 +7348,14 @@
       <c r="F182" s="23"/>
       <c r="G182" s="23"/>
       <c r="H182" s="24"/>
-      <c r="I182" s="25"/>
+      <c r="I182" s="24"/>
       <c r="J182" s="25"/>
       <c r="K182" s="25"/>
-      <c r="L182" s="23"/>
+      <c r="L182" s="25"/>
       <c r="M182" s="23"/>
       <c r="N182" s="23"/>
       <c r="O182" s="23"/>
-      <c r="P182" s="19"/>
+      <c r="P182" s="23"/>
       <c r="Q182" s="19"/>
       <c r="R182" s="19"/>
       <c r="S182" s="19"/>
@@ -7203,8 +7366,9 @@
       <c r="X182" s="19"/>
       <c r="Y182" s="19"/>
       <c r="Z182" s="19"/>
-    </row>
-    <row r="183" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA182" s="19"/>
+    </row>
+    <row r="183" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="19"/>
       <c r="B183" s="22"/>
       <c r="C183" s="23"/>
@@ -7213,14 +7377,14 @@
       <c r="F183" s="23"/>
       <c r="G183" s="23"/>
       <c r="H183" s="24"/>
-      <c r="I183" s="25"/>
+      <c r="I183" s="24"/>
       <c r="J183" s="25"/>
       <c r="K183" s="25"/>
-      <c r="L183" s="23"/>
+      <c r="L183" s="25"/>
       <c r="M183" s="23"/>
       <c r="N183" s="23"/>
       <c r="O183" s="23"/>
-      <c r="P183" s="19"/>
+      <c r="P183" s="23"/>
       <c r="Q183" s="19"/>
       <c r="R183" s="19"/>
       <c r="S183" s="19"/>
@@ -7231,8 +7395,9 @@
       <c r="X183" s="19"/>
       <c r="Y183" s="19"/>
       <c r="Z183" s="19"/>
-    </row>
-    <row r="184" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA183" s="19"/>
+    </row>
+    <row r="184" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="19"/>
       <c r="B184" s="22"/>
       <c r="C184" s="23"/>
@@ -7241,14 +7406,14 @@
       <c r="F184" s="23"/>
       <c r="G184" s="23"/>
       <c r="H184" s="24"/>
-      <c r="I184" s="25"/>
+      <c r="I184" s="24"/>
       <c r="J184" s="25"/>
       <c r="K184" s="25"/>
-      <c r="L184" s="23"/>
+      <c r="L184" s="25"/>
       <c r="M184" s="23"/>
       <c r="N184" s="23"/>
       <c r="O184" s="23"/>
-      <c r="P184" s="19"/>
+      <c r="P184" s="23"/>
       <c r="Q184" s="19"/>
       <c r="R184" s="19"/>
       <c r="S184" s="19"/>
@@ -7259,8 +7424,9 @@
       <c r="X184" s="19"/>
       <c r="Y184" s="19"/>
       <c r="Z184" s="19"/>
-    </row>
-    <row r="185" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA184" s="19"/>
+    </row>
+    <row r="185" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="19"/>
       <c r="B185" s="22"/>
       <c r="C185" s="23"/>
@@ -7269,14 +7435,14 @@
       <c r="F185" s="23"/>
       <c r="G185" s="23"/>
       <c r="H185" s="24"/>
-      <c r="I185" s="25"/>
+      <c r="I185" s="24"/>
       <c r="J185" s="25"/>
       <c r="K185" s="25"/>
-      <c r="L185" s="23"/>
+      <c r="L185" s="25"/>
       <c r="M185" s="23"/>
       <c r="N185" s="23"/>
       <c r="O185" s="23"/>
-      <c r="P185" s="19"/>
+      <c r="P185" s="23"/>
       <c r="Q185" s="19"/>
       <c r="R185" s="19"/>
       <c r="S185" s="19"/>
@@ -7287,8 +7453,9 @@
       <c r="X185" s="19"/>
       <c r="Y185" s="19"/>
       <c r="Z185" s="19"/>
-    </row>
-    <row r="186" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA185" s="19"/>
+    </row>
+    <row r="186" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="19"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
@@ -7297,14 +7464,14 @@
       <c r="F186" s="23"/>
       <c r="G186" s="23"/>
       <c r="H186" s="24"/>
-      <c r="I186" s="25"/>
+      <c r="I186" s="24"/>
       <c r="J186" s="25"/>
       <c r="K186" s="25"/>
-      <c r="L186" s="23"/>
+      <c r="L186" s="25"/>
       <c r="M186" s="23"/>
       <c r="N186" s="23"/>
       <c r="O186" s="23"/>
-      <c r="P186" s="19"/>
+      <c r="P186" s="23"/>
       <c r="Q186" s="19"/>
       <c r="R186" s="19"/>
       <c r="S186" s="19"/>
@@ -7315,8 +7482,9 @@
       <c r="X186" s="19"/>
       <c r="Y186" s="19"/>
       <c r="Z186" s="19"/>
-    </row>
-    <row r="187" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA186" s="19"/>
+    </row>
+    <row r="187" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="19"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
@@ -7325,14 +7493,14 @@
       <c r="F187" s="23"/>
       <c r="G187" s="23"/>
       <c r="H187" s="24"/>
-      <c r="I187" s="25"/>
+      <c r="I187" s="24"/>
       <c r="J187" s="25"/>
       <c r="K187" s="25"/>
-      <c r="L187" s="23"/>
+      <c r="L187" s="25"/>
       <c r="M187" s="23"/>
       <c r="N187" s="23"/>
       <c r="O187" s="23"/>
-      <c r="P187" s="19"/>
+      <c r="P187" s="23"/>
       <c r="Q187" s="19"/>
       <c r="R187" s="19"/>
       <c r="S187" s="19"/>
@@ -7343,8 +7511,9 @@
       <c r="X187" s="19"/>
       <c r="Y187" s="19"/>
       <c r="Z187" s="19"/>
-    </row>
-    <row r="188" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA187" s="19"/>
+    </row>
+    <row r="188" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="19"/>
       <c r="B188" s="22"/>
       <c r="C188" s="23"/>
@@ -7353,14 +7522,14 @@
       <c r="F188" s="23"/>
       <c r="G188" s="23"/>
       <c r="H188" s="24"/>
-      <c r="I188" s="25"/>
+      <c r="I188" s="24"/>
       <c r="J188" s="25"/>
       <c r="K188" s="25"/>
-      <c r="L188" s="23"/>
+      <c r="L188" s="25"/>
       <c r="M188" s="23"/>
       <c r="N188" s="23"/>
       <c r="O188" s="23"/>
-      <c r="P188" s="19"/>
+      <c r="P188" s="23"/>
       <c r="Q188" s="19"/>
       <c r="R188" s="19"/>
       <c r="S188" s="19"/>
@@ -7371,8 +7540,9 @@
       <c r="X188" s="19"/>
       <c r="Y188" s="19"/>
       <c r="Z188" s="19"/>
-    </row>
-    <row r="189" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA188" s="19"/>
+    </row>
+    <row r="189" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="19"/>
       <c r="B189" s="22"/>
       <c r="C189" s="23"/>
@@ -7381,14 +7551,14 @@
       <c r="F189" s="23"/>
       <c r="G189" s="23"/>
       <c r="H189" s="24"/>
-      <c r="I189" s="25"/>
+      <c r="I189" s="24"/>
       <c r="J189" s="25"/>
       <c r="K189" s="25"/>
-      <c r="L189" s="23"/>
+      <c r="L189" s="25"/>
       <c r="M189" s="23"/>
       <c r="N189" s="23"/>
       <c r="O189" s="23"/>
-      <c r="P189" s="19"/>
+      <c r="P189" s="23"/>
       <c r="Q189" s="19"/>
       <c r="R189" s="19"/>
       <c r="S189" s="19"/>
@@ -7399,8 +7569,9 @@
       <c r="X189" s="19"/>
       <c r="Y189" s="19"/>
       <c r="Z189" s="19"/>
-    </row>
-    <row r="190" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA189" s="19"/>
+    </row>
+    <row r="190" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="19"/>
       <c r="B190" s="22"/>
       <c r="C190" s="23"/>
@@ -7409,14 +7580,14 @@
       <c r="F190" s="23"/>
       <c r="G190" s="23"/>
       <c r="H190" s="24"/>
-      <c r="I190" s="25"/>
+      <c r="I190" s="24"/>
       <c r="J190" s="25"/>
       <c r="K190" s="25"/>
-      <c r="L190" s="23"/>
+      <c r="L190" s="25"/>
       <c r="M190" s="23"/>
       <c r="N190" s="23"/>
       <c r="O190" s="23"/>
-      <c r="P190" s="19"/>
+      <c r="P190" s="23"/>
       <c r="Q190" s="19"/>
       <c r="R190" s="19"/>
       <c r="S190" s="19"/>
@@ -7427,8 +7598,9 @@
       <c r="X190" s="19"/>
       <c r="Y190" s="19"/>
       <c r="Z190" s="19"/>
-    </row>
-    <row r="191" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA190" s="19"/>
+    </row>
+    <row r="191" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="19"/>
       <c r="B191" s="22"/>
       <c r="C191" s="23"/>
@@ -7437,14 +7609,14 @@
       <c r="F191" s="23"/>
       <c r="G191" s="23"/>
       <c r="H191" s="24"/>
-      <c r="I191" s="25"/>
+      <c r="I191" s="24"/>
       <c r="J191" s="25"/>
       <c r="K191" s="25"/>
-      <c r="L191" s="23"/>
+      <c r="L191" s="25"/>
       <c r="M191" s="23"/>
       <c r="N191" s="23"/>
       <c r="O191" s="23"/>
-      <c r="P191" s="19"/>
+      <c r="P191" s="23"/>
       <c r="Q191" s="19"/>
       <c r="R191" s="19"/>
       <c r="S191" s="19"/>
@@ -7455,8 +7627,9 @@
       <c r="X191" s="19"/>
       <c r="Y191" s="19"/>
       <c r="Z191" s="19"/>
-    </row>
-    <row r="192" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA191" s="19"/>
+    </row>
+    <row r="192" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="19"/>
       <c r="B192" s="22"/>
       <c r="C192" s="23"/>
@@ -7465,14 +7638,14 @@
       <c r="F192" s="23"/>
       <c r="G192" s="23"/>
       <c r="H192" s="24"/>
-      <c r="I192" s="25"/>
+      <c r="I192" s="24"/>
       <c r="J192" s="25"/>
       <c r="K192" s="25"/>
-      <c r="L192" s="23"/>
+      <c r="L192" s="25"/>
       <c r="M192" s="23"/>
       <c r="N192" s="23"/>
       <c r="O192" s="23"/>
-      <c r="P192" s="19"/>
+      <c r="P192" s="23"/>
       <c r="Q192" s="19"/>
       <c r="R192" s="19"/>
       <c r="S192" s="19"/>
@@ -7483,8 +7656,9 @@
       <c r="X192" s="19"/>
       <c r="Y192" s="19"/>
       <c r="Z192" s="19"/>
-    </row>
-    <row r="193" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA192" s="19"/>
+    </row>
+    <row r="193" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="19"/>
       <c r="B193" s="22"/>
       <c r="C193" s="23"/>
@@ -7493,14 +7667,14 @@
       <c r="F193" s="23"/>
       <c r="G193" s="23"/>
       <c r="H193" s="24"/>
-      <c r="I193" s="25"/>
+      <c r="I193" s="24"/>
       <c r="J193" s="25"/>
       <c r="K193" s="25"/>
-      <c r="L193" s="23"/>
+      <c r="L193" s="25"/>
       <c r="M193" s="23"/>
       <c r="N193" s="23"/>
       <c r="O193" s="23"/>
-      <c r="P193" s="19"/>
+      <c r="P193" s="23"/>
       <c r="Q193" s="19"/>
       <c r="R193" s="19"/>
       <c r="S193" s="19"/>
@@ -7511,8 +7685,9 @@
       <c r="X193" s="19"/>
       <c r="Y193" s="19"/>
       <c r="Z193" s="19"/>
-    </row>
-    <row r="194" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA193" s="19"/>
+    </row>
+    <row r="194" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="19"/>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
@@ -7521,14 +7696,14 @@
       <c r="F194" s="23"/>
       <c r="G194" s="23"/>
       <c r="H194" s="24"/>
-      <c r="I194" s="25"/>
+      <c r="I194" s="24"/>
       <c r="J194" s="25"/>
       <c r="K194" s="25"/>
-      <c r="L194" s="23"/>
+      <c r="L194" s="25"/>
       <c r="M194" s="23"/>
       <c r="N194" s="23"/>
       <c r="O194" s="23"/>
-      <c r="P194" s="19"/>
+      <c r="P194" s="23"/>
       <c r="Q194" s="19"/>
       <c r="R194" s="19"/>
       <c r="S194" s="19"/>
@@ -7539,8 +7714,9 @@
       <c r="X194" s="19"/>
       <c r="Y194" s="19"/>
       <c r="Z194" s="19"/>
-    </row>
-    <row r="195" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA194" s="19"/>
+    </row>
+    <row r="195" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="19"/>
       <c r="B195" s="22"/>
       <c r="C195" s="23"/>
@@ -7549,14 +7725,14 @@
       <c r="F195" s="23"/>
       <c r="G195" s="23"/>
       <c r="H195" s="24"/>
-      <c r="I195" s="25"/>
+      <c r="I195" s="24"/>
       <c r="J195" s="25"/>
       <c r="K195" s="25"/>
-      <c r="L195" s="23"/>
+      <c r="L195" s="25"/>
       <c r="M195" s="23"/>
       <c r="N195" s="23"/>
       <c r="O195" s="23"/>
-      <c r="P195" s="19"/>
+      <c r="P195" s="23"/>
       <c r="Q195" s="19"/>
       <c r="R195" s="19"/>
       <c r="S195" s="19"/>
@@ -7567,8 +7743,9 @@
       <c r="X195" s="19"/>
       <c r="Y195" s="19"/>
       <c r="Z195" s="19"/>
-    </row>
-    <row r="196" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA195" s="19"/>
+    </row>
+    <row r="196" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="19"/>
       <c r="B196" s="22"/>
       <c r="C196" s="23"/>
@@ -7577,14 +7754,14 @@
       <c r="F196" s="23"/>
       <c r="G196" s="23"/>
       <c r="H196" s="24"/>
-      <c r="I196" s="25"/>
+      <c r="I196" s="24"/>
       <c r="J196" s="25"/>
       <c r="K196" s="25"/>
-      <c r="L196" s="23"/>
+      <c r="L196" s="25"/>
       <c r="M196" s="23"/>
       <c r="N196" s="23"/>
       <c r="O196" s="23"/>
-      <c r="P196" s="19"/>
+      <c r="P196" s="23"/>
       <c r="Q196" s="19"/>
       <c r="R196" s="19"/>
       <c r="S196" s="19"/>
@@ -7595,8 +7772,9 @@
       <c r="X196" s="19"/>
       <c r="Y196" s="19"/>
       <c r="Z196" s="19"/>
-    </row>
-    <row r="197" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA196" s="19"/>
+    </row>
+    <row r="197" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="19"/>
       <c r="B197" s="22"/>
       <c r="C197" s="23"/>
@@ -7605,14 +7783,14 @@
       <c r="F197" s="23"/>
       <c r="G197" s="23"/>
       <c r="H197" s="24"/>
-      <c r="I197" s="25"/>
+      <c r="I197" s="24"/>
       <c r="J197" s="25"/>
       <c r="K197" s="25"/>
-      <c r="L197" s="23"/>
+      <c r="L197" s="25"/>
       <c r="M197" s="23"/>
       <c r="N197" s="23"/>
       <c r="O197" s="23"/>
-      <c r="P197" s="19"/>
+      <c r="P197" s="23"/>
       <c r="Q197" s="19"/>
       <c r="R197" s="19"/>
       <c r="S197" s="19"/>
@@ -7623,8 +7801,9 @@
       <c r="X197" s="19"/>
       <c r="Y197" s="19"/>
       <c r="Z197" s="19"/>
-    </row>
-    <row r="198" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA197" s="19"/>
+    </row>
+    <row r="198" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="19"/>
       <c r="B198" s="22"/>
       <c r="C198" s="23"/>
@@ -7633,14 +7812,14 @@
       <c r="F198" s="23"/>
       <c r="G198" s="23"/>
       <c r="H198" s="24"/>
-      <c r="I198" s="25"/>
+      <c r="I198" s="24"/>
       <c r="J198" s="25"/>
       <c r="K198" s="25"/>
-      <c r="L198" s="23"/>
+      <c r="L198" s="25"/>
       <c r="M198" s="23"/>
       <c r="N198" s="23"/>
       <c r="O198" s="23"/>
-      <c r="P198" s="19"/>
+      <c r="P198" s="23"/>
       <c r="Q198" s="19"/>
       <c r="R198" s="19"/>
       <c r="S198" s="19"/>
@@ -7651,8 +7830,9 @@
       <c r="X198" s="19"/>
       <c r="Y198" s="19"/>
       <c r="Z198" s="19"/>
-    </row>
-    <row r="199" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA198" s="19"/>
+    </row>
+    <row r="199" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="19"/>
       <c r="B199" s="22"/>
       <c r="C199" s="23"/>
@@ -7661,14 +7841,14 @@
       <c r="F199" s="23"/>
       <c r="G199" s="23"/>
       <c r="H199" s="24"/>
-      <c r="I199" s="25"/>
+      <c r="I199" s="24"/>
       <c r="J199" s="25"/>
       <c r="K199" s="25"/>
-      <c r="L199" s="23"/>
+      <c r="L199" s="25"/>
       <c r="M199" s="23"/>
       <c r="N199" s="23"/>
       <c r="O199" s="23"/>
-      <c r="P199" s="19"/>
+      <c r="P199" s="23"/>
       <c r="Q199" s="19"/>
       <c r="R199" s="19"/>
       <c r="S199" s="19"/>
@@ -7679,8 +7859,9 @@
       <c r="X199" s="19"/>
       <c r="Y199" s="19"/>
       <c r="Z199" s="19"/>
-    </row>
-    <row r="200" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA199" s="19"/>
+    </row>
+    <row r="200" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="19"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
@@ -7689,14 +7870,14 @@
       <c r="F200" s="23"/>
       <c r="G200" s="23"/>
       <c r="H200" s="24"/>
-      <c r="I200" s="25"/>
+      <c r="I200" s="24"/>
       <c r="J200" s="25"/>
       <c r="K200" s="25"/>
-      <c r="L200" s="23"/>
+      <c r="L200" s="25"/>
       <c r="M200" s="23"/>
       <c r="N200" s="23"/>
       <c r="O200" s="23"/>
-      <c r="P200" s="19"/>
+      <c r="P200" s="23"/>
       <c r="Q200" s="19"/>
       <c r="R200" s="19"/>
       <c r="S200" s="19"/>
@@ -7707,8 +7888,9 @@
       <c r="X200" s="19"/>
       <c r="Y200" s="19"/>
       <c r="Z200" s="19"/>
-    </row>
-    <row r="201" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA200" s="19"/>
+    </row>
+    <row r="201" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="19"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -7717,14 +7899,14 @@
       <c r="F201" s="23"/>
       <c r="G201" s="23"/>
       <c r="H201" s="24"/>
-      <c r="I201" s="25"/>
+      <c r="I201" s="24"/>
       <c r="J201" s="25"/>
       <c r="K201" s="25"/>
-      <c r="L201" s="23"/>
+      <c r="L201" s="25"/>
       <c r="M201" s="23"/>
       <c r="N201" s="23"/>
       <c r="O201" s="23"/>
-      <c r="P201" s="19"/>
+      <c r="P201" s="23"/>
       <c r="Q201" s="19"/>
       <c r="R201" s="19"/>
       <c r="S201" s="19"/>
@@ -7735,8 +7917,9 @@
       <c r="X201" s="19"/>
       <c r="Y201" s="19"/>
       <c r="Z201" s="19"/>
-    </row>
-    <row r="202" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA201" s="19"/>
+    </row>
+    <row r="202" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="19"/>
       <c r="B202" s="22"/>
       <c r="C202" s="23"/>
@@ -7745,14 +7928,14 @@
       <c r="F202" s="23"/>
       <c r="G202" s="23"/>
       <c r="H202" s="24"/>
-      <c r="I202" s="25"/>
+      <c r="I202" s="24"/>
       <c r="J202" s="25"/>
       <c r="K202" s="25"/>
-      <c r="L202" s="23"/>
+      <c r="L202" s="25"/>
       <c r="M202" s="23"/>
       <c r="N202" s="23"/>
       <c r="O202" s="23"/>
-      <c r="P202" s="19"/>
+      <c r="P202" s="23"/>
       <c r="Q202" s="19"/>
       <c r="R202" s="19"/>
       <c r="S202" s="19"/>
@@ -7763,8 +7946,9 @@
       <c r="X202" s="19"/>
       <c r="Y202" s="19"/>
       <c r="Z202" s="19"/>
-    </row>
-    <row r="203" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA202" s="19"/>
+    </row>
+    <row r="203" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="19"/>
       <c r="B203" s="22"/>
       <c r="C203" s="23"/>
@@ -7773,14 +7957,14 @@
       <c r="F203" s="23"/>
       <c r="G203" s="23"/>
       <c r="H203" s="24"/>
-      <c r="I203" s="25"/>
+      <c r="I203" s="24"/>
       <c r="J203" s="25"/>
       <c r="K203" s="25"/>
-      <c r="L203" s="23"/>
+      <c r="L203" s="25"/>
       <c r="M203" s="23"/>
       <c r="N203" s="23"/>
       <c r="O203" s="23"/>
-      <c r="P203" s="19"/>
+      <c r="P203" s="23"/>
       <c r="Q203" s="19"/>
       <c r="R203" s="19"/>
       <c r="S203" s="19"/>
@@ -7791,8 +7975,9 @@
       <c r="X203" s="19"/>
       <c r="Y203" s="19"/>
       <c r="Z203" s="19"/>
-    </row>
-    <row r="204" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA203" s="19"/>
+    </row>
+    <row r="204" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="19"/>
       <c r="B204" s="22"/>
       <c r="C204" s="23"/>
@@ -7801,14 +7986,14 @@
       <c r="F204" s="23"/>
       <c r="G204" s="23"/>
       <c r="H204" s="24"/>
-      <c r="I204" s="25"/>
+      <c r="I204" s="24"/>
       <c r="J204" s="25"/>
       <c r="K204" s="25"/>
-      <c r="L204" s="23"/>
+      <c r="L204" s="25"/>
       <c r="M204" s="23"/>
       <c r="N204" s="23"/>
       <c r="O204" s="23"/>
-      <c r="P204" s="19"/>
+      <c r="P204" s="23"/>
       <c r="Q204" s="19"/>
       <c r="R204" s="19"/>
       <c r="S204" s="19"/>
@@ -7819,8 +8004,9 @@
       <c r="X204" s="19"/>
       <c r="Y204" s="19"/>
       <c r="Z204" s="19"/>
-    </row>
-    <row r="205" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA204" s="19"/>
+    </row>
+    <row r="205" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="19"/>
       <c r="B205" s="22"/>
       <c r="C205" s="23"/>
@@ -7829,14 +8015,14 @@
       <c r="F205" s="23"/>
       <c r="G205" s="23"/>
       <c r="H205" s="24"/>
-      <c r="I205" s="25"/>
+      <c r="I205" s="24"/>
       <c r="J205" s="25"/>
       <c r="K205" s="25"/>
-      <c r="L205" s="23"/>
+      <c r="L205" s="25"/>
       <c r="M205" s="23"/>
       <c r="N205" s="23"/>
       <c r="O205" s="23"/>
-      <c r="P205" s="19"/>
+      <c r="P205" s="23"/>
       <c r="Q205" s="19"/>
       <c r="R205" s="19"/>
       <c r="S205" s="19"/>
@@ -7847,8 +8033,9 @@
       <c r="X205" s="19"/>
       <c r="Y205" s="19"/>
       <c r="Z205" s="19"/>
-    </row>
-    <row r="206" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA205" s="19"/>
+    </row>
+    <row r="206" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="19"/>
       <c r="B206" s="22"/>
       <c r="C206" s="23"/>
@@ -7857,14 +8044,14 @@
       <c r="F206" s="23"/>
       <c r="G206" s="23"/>
       <c r="H206" s="24"/>
-      <c r="I206" s="25"/>
+      <c r="I206" s="24"/>
       <c r="J206" s="25"/>
       <c r="K206" s="25"/>
-      <c r="L206" s="23"/>
+      <c r="L206" s="25"/>
       <c r="M206" s="23"/>
       <c r="N206" s="23"/>
       <c r="O206" s="23"/>
-      <c r="P206" s="19"/>
+      <c r="P206" s="23"/>
       <c r="Q206" s="19"/>
       <c r="R206" s="19"/>
       <c r="S206" s="19"/>
@@ -7875,8 +8062,9 @@
       <c r="X206" s="19"/>
       <c r="Y206" s="19"/>
       <c r="Z206" s="19"/>
-    </row>
-    <row r="207" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA206" s="19"/>
+    </row>
+    <row r="207" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="19"/>
       <c r="B207" s="22"/>
       <c r="C207" s="23"/>
@@ -7885,14 +8073,14 @@
       <c r="F207" s="23"/>
       <c r="G207" s="23"/>
       <c r="H207" s="24"/>
-      <c r="I207" s="25"/>
+      <c r="I207" s="24"/>
       <c r="J207" s="25"/>
       <c r="K207" s="25"/>
-      <c r="L207" s="23"/>
+      <c r="L207" s="25"/>
       <c r="M207" s="23"/>
       <c r="N207" s="23"/>
       <c r="O207" s="23"/>
-      <c r="P207" s="19"/>
+      <c r="P207" s="23"/>
       <c r="Q207" s="19"/>
       <c r="R207" s="19"/>
       <c r="S207" s="19"/>
@@ -7903,8 +8091,9 @@
       <c r="X207" s="19"/>
       <c r="Y207" s="19"/>
       <c r="Z207" s="19"/>
-    </row>
-    <row r="208" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA207" s="19"/>
+    </row>
+    <row r="208" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="19"/>
       <c r="B208" s="22"/>
       <c r="C208" s="23"/>
@@ -7913,14 +8102,14 @@
       <c r="F208" s="23"/>
       <c r="G208" s="23"/>
       <c r="H208" s="24"/>
-      <c r="I208" s="25"/>
+      <c r="I208" s="24"/>
       <c r="J208" s="25"/>
       <c r="K208" s="25"/>
-      <c r="L208" s="23"/>
+      <c r="L208" s="25"/>
       <c r="M208" s="23"/>
       <c r="N208" s="23"/>
       <c r="O208" s="23"/>
-      <c r="P208" s="19"/>
+      <c r="P208" s="23"/>
       <c r="Q208" s="19"/>
       <c r="R208" s="19"/>
       <c r="S208" s="19"/>
@@ -7931,8 +8120,9 @@
       <c r="X208" s="19"/>
       <c r="Y208" s="19"/>
       <c r="Z208" s="19"/>
-    </row>
-    <row r="209" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA208" s="19"/>
+    </row>
+    <row r="209" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="19"/>
       <c r="B209" s="22"/>
       <c r="C209" s="23"/>
@@ -7941,14 +8131,14 @@
       <c r="F209" s="23"/>
       <c r="G209" s="23"/>
       <c r="H209" s="24"/>
-      <c r="I209" s="25"/>
+      <c r="I209" s="24"/>
       <c r="J209" s="25"/>
       <c r="K209" s="25"/>
-      <c r="L209" s="23"/>
+      <c r="L209" s="25"/>
       <c r="M209" s="23"/>
       <c r="N209" s="23"/>
       <c r="O209" s="23"/>
-      <c r="P209" s="19"/>
+      <c r="P209" s="23"/>
       <c r="Q209" s="19"/>
       <c r="R209" s="19"/>
       <c r="S209" s="19"/>
@@ -7959,8 +8149,9 @@
       <c r="X209" s="19"/>
       <c r="Y209" s="19"/>
       <c r="Z209" s="19"/>
-    </row>
-    <row r="210" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA209" s="19"/>
+    </row>
+    <row r="210" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="19"/>
       <c r="B210" s="22"/>
       <c r="C210" s="23"/>
@@ -7969,14 +8160,14 @@
       <c r="F210" s="23"/>
       <c r="G210" s="23"/>
       <c r="H210" s="24"/>
-      <c r="I210" s="25"/>
+      <c r="I210" s="24"/>
       <c r="J210" s="25"/>
       <c r="K210" s="25"/>
-      <c r="L210" s="23"/>
+      <c r="L210" s="25"/>
       <c r="M210" s="23"/>
       <c r="N210" s="23"/>
       <c r="O210" s="23"/>
-      <c r="P210" s="19"/>
+      <c r="P210" s="23"/>
       <c r="Q210" s="19"/>
       <c r="R210" s="19"/>
       <c r="S210" s="19"/>
@@ -7987,8 +8178,9 @@
       <c r="X210" s="19"/>
       <c r="Y210" s="19"/>
       <c r="Z210" s="19"/>
-    </row>
-    <row r="211" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA210" s="19"/>
+    </row>
+    <row r="211" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="19"/>
       <c r="B211" s="22"/>
       <c r="C211" s="23"/>
@@ -7997,14 +8189,14 @@
       <c r="F211" s="23"/>
       <c r="G211" s="23"/>
       <c r="H211" s="24"/>
-      <c r="I211" s="25"/>
+      <c r="I211" s="24"/>
       <c r="J211" s="25"/>
       <c r="K211" s="25"/>
-      <c r="L211" s="23"/>
+      <c r="L211" s="25"/>
       <c r="M211" s="23"/>
       <c r="N211" s="23"/>
       <c r="O211" s="23"/>
-      <c r="P211" s="19"/>
+      <c r="P211" s="23"/>
       <c r="Q211" s="19"/>
       <c r="R211" s="19"/>
       <c r="S211" s="19"/>
@@ -8015,8 +8207,9 @@
       <c r="X211" s="19"/>
       <c r="Y211" s="19"/>
       <c r="Z211" s="19"/>
-    </row>
-    <row r="212" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA211" s="19"/>
+    </row>
+    <row r="212" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="19"/>
       <c r="B212" s="22"/>
       <c r="C212" s="23"/>
@@ -8025,14 +8218,14 @@
       <c r="F212" s="23"/>
       <c r="G212" s="23"/>
       <c r="H212" s="24"/>
-      <c r="I212" s="25"/>
+      <c r="I212" s="24"/>
       <c r="J212" s="25"/>
       <c r="K212" s="25"/>
-      <c r="L212" s="23"/>
+      <c r="L212" s="25"/>
       <c r="M212" s="23"/>
       <c r="N212" s="23"/>
       <c r="O212" s="23"/>
-      <c r="P212" s="19"/>
+      <c r="P212" s="23"/>
       <c r="Q212" s="19"/>
       <c r="R212" s="19"/>
       <c r="S212" s="19"/>
@@ -8043,8 +8236,9 @@
       <c r="X212" s="19"/>
       <c r="Y212" s="19"/>
       <c r="Z212" s="19"/>
-    </row>
-    <row r="213" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA212" s="19"/>
+    </row>
+    <row r="213" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="19"/>
       <c r="B213" s="22"/>
       <c r="C213" s="23"/>
@@ -8053,14 +8247,14 @@
       <c r="F213" s="23"/>
       <c r="G213" s="23"/>
       <c r="H213" s="24"/>
-      <c r="I213" s="25"/>
+      <c r="I213" s="24"/>
       <c r="J213" s="25"/>
       <c r="K213" s="25"/>
-      <c r="L213" s="23"/>
+      <c r="L213" s="25"/>
       <c r="M213" s="23"/>
       <c r="N213" s="23"/>
       <c r="O213" s="23"/>
-      <c r="P213" s="19"/>
+      <c r="P213" s="23"/>
       <c r="Q213" s="19"/>
       <c r="R213" s="19"/>
       <c r="S213" s="19"/>
@@ -8071,8 +8265,9 @@
       <c r="X213" s="19"/>
       <c r="Y213" s="19"/>
       <c r="Z213" s="19"/>
-    </row>
-    <row r="214" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA213" s="19"/>
+    </row>
+    <row r="214" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="19"/>
       <c r="B214" s="22"/>
       <c r="C214" s="23"/>
@@ -8081,14 +8276,14 @@
       <c r="F214" s="23"/>
       <c r="G214" s="23"/>
       <c r="H214" s="24"/>
-      <c r="I214" s="25"/>
+      <c r="I214" s="24"/>
       <c r="J214" s="25"/>
       <c r="K214" s="25"/>
-      <c r="L214" s="23"/>
+      <c r="L214" s="25"/>
       <c r="M214" s="23"/>
       <c r="N214" s="23"/>
       <c r="O214" s="23"/>
-      <c r="P214" s="19"/>
+      <c r="P214" s="23"/>
       <c r="Q214" s="19"/>
       <c r="R214" s="19"/>
       <c r="S214" s="19"/>
@@ -8099,8 +8294,9 @@
       <c r="X214" s="19"/>
       <c r="Y214" s="19"/>
       <c r="Z214" s="19"/>
-    </row>
-    <row r="215" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA214" s="19"/>
+    </row>
+    <row r="215" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="19"/>
       <c r="B215" s="22"/>
       <c r="C215" s="23"/>
@@ -8109,14 +8305,14 @@
       <c r="F215" s="23"/>
       <c r="G215" s="23"/>
       <c r="H215" s="24"/>
-      <c r="I215" s="25"/>
+      <c r="I215" s="24"/>
       <c r="J215" s="25"/>
       <c r="K215" s="25"/>
-      <c r="L215" s="23"/>
+      <c r="L215" s="25"/>
       <c r="M215" s="23"/>
       <c r="N215" s="23"/>
       <c r="O215" s="23"/>
-      <c r="P215" s="19"/>
+      <c r="P215" s="23"/>
       <c r="Q215" s="19"/>
       <c r="R215" s="19"/>
       <c r="S215" s="19"/>
@@ -8127,8 +8323,9 @@
       <c r="X215" s="19"/>
       <c r="Y215" s="19"/>
       <c r="Z215" s="19"/>
-    </row>
-    <row r="216" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA215" s="19"/>
+    </row>
+    <row r="216" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="19"/>
       <c r="B216" s="22"/>
       <c r="C216" s="23"/>
@@ -8137,14 +8334,14 @@
       <c r="F216" s="23"/>
       <c r="G216" s="23"/>
       <c r="H216" s="24"/>
-      <c r="I216" s="25"/>
+      <c r="I216" s="24"/>
       <c r="J216" s="25"/>
       <c r="K216" s="25"/>
-      <c r="L216" s="23"/>
+      <c r="L216" s="25"/>
       <c r="M216" s="23"/>
       <c r="N216" s="23"/>
       <c r="O216" s="23"/>
-      <c r="P216" s="19"/>
+      <c r="P216" s="23"/>
       <c r="Q216" s="19"/>
       <c r="R216" s="19"/>
       <c r="S216" s="19"/>
@@ -8155,8 +8352,9 @@
       <c r="X216" s="19"/>
       <c r="Y216" s="19"/>
       <c r="Z216" s="19"/>
-    </row>
-    <row r="217" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA216" s="19"/>
+    </row>
+    <row r="217" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="19"/>
       <c r="B217" s="22"/>
       <c r="C217" s="23"/>
@@ -8165,14 +8363,14 @@
       <c r="F217" s="23"/>
       <c r="G217" s="23"/>
       <c r="H217" s="24"/>
-      <c r="I217" s="25"/>
+      <c r="I217" s="24"/>
       <c r="J217" s="25"/>
       <c r="K217" s="25"/>
-      <c r="L217" s="23"/>
+      <c r="L217" s="25"/>
       <c r="M217" s="23"/>
       <c r="N217" s="23"/>
       <c r="O217" s="23"/>
-      <c r="P217" s="19"/>
+      <c r="P217" s="23"/>
       <c r="Q217" s="19"/>
       <c r="R217" s="19"/>
       <c r="S217" s="19"/>
@@ -8183,8 +8381,9 @@
       <c r="X217" s="19"/>
       <c r="Y217" s="19"/>
       <c r="Z217" s="19"/>
-    </row>
-    <row r="218" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA217" s="19"/>
+    </row>
+    <row r="218" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="19"/>
       <c r="B218" s="22"/>
       <c r="C218" s="23"/>
@@ -8193,14 +8392,14 @@
       <c r="F218" s="23"/>
       <c r="G218" s="23"/>
       <c r="H218" s="24"/>
-      <c r="I218" s="25"/>
+      <c r="I218" s="24"/>
       <c r="J218" s="25"/>
       <c r="K218" s="25"/>
-      <c r="L218" s="23"/>
+      <c r="L218" s="25"/>
       <c r="M218" s="23"/>
       <c r="N218" s="23"/>
       <c r="O218" s="23"/>
-      <c r="P218" s="19"/>
+      <c r="P218" s="23"/>
       <c r="Q218" s="19"/>
       <c r="R218" s="19"/>
       <c r="S218" s="19"/>
@@ -8211,8 +8410,9 @@
       <c r="X218" s="19"/>
       <c r="Y218" s="19"/>
       <c r="Z218" s="19"/>
-    </row>
-    <row r="219" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA218" s="19"/>
+    </row>
+    <row r="219" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="19"/>
       <c r="B219" s="22"/>
       <c r="C219" s="23"/>
@@ -8221,14 +8421,14 @@
       <c r="F219" s="23"/>
       <c r="G219" s="23"/>
       <c r="H219" s="24"/>
-      <c r="I219" s="25"/>
+      <c r="I219" s="24"/>
       <c r="J219" s="25"/>
       <c r="K219" s="25"/>
-      <c r="L219" s="23"/>
+      <c r="L219" s="25"/>
       <c r="M219" s="23"/>
       <c r="N219" s="23"/>
       <c r="O219" s="23"/>
-      <c r="P219" s="19"/>
+      <c r="P219" s="23"/>
       <c r="Q219" s="19"/>
       <c r="R219" s="19"/>
       <c r="S219" s="19"/>
@@ -8239,8 +8439,9 @@
       <c r="X219" s="19"/>
       <c r="Y219" s="19"/>
       <c r="Z219" s="19"/>
-    </row>
-    <row r="220" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA219" s="19"/>
+    </row>
+    <row r="220" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="19"/>
       <c r="B220" s="22"/>
       <c r="C220" s="23"/>
@@ -8249,14 +8450,14 @@
       <c r="F220" s="23"/>
       <c r="G220" s="23"/>
       <c r="H220" s="24"/>
-      <c r="I220" s="25"/>
+      <c r="I220" s="24"/>
       <c r="J220" s="25"/>
       <c r="K220" s="25"/>
-      <c r="L220" s="23"/>
+      <c r="L220" s="25"/>
       <c r="M220" s="23"/>
       <c r="N220" s="23"/>
       <c r="O220" s="23"/>
-      <c r="P220" s="19"/>
+      <c r="P220" s="23"/>
       <c r="Q220" s="19"/>
       <c r="R220" s="19"/>
       <c r="S220" s="19"/>
@@ -8267,8 +8468,9 @@
       <c r="X220" s="19"/>
       <c r="Y220" s="19"/>
       <c r="Z220" s="19"/>
-    </row>
-    <row r="221" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA220" s="19"/>
+    </row>
+    <row r="221" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="19"/>
       <c r="B221" s="22"/>
       <c r="C221" s="23"/>
@@ -8277,14 +8479,14 @@
       <c r="F221" s="23"/>
       <c r="G221" s="23"/>
       <c r="H221" s="24"/>
-      <c r="I221" s="25"/>
+      <c r="I221" s="24"/>
       <c r="J221" s="25"/>
       <c r="K221" s="25"/>
-      <c r="L221" s="23"/>
+      <c r="L221" s="25"/>
       <c r="M221" s="23"/>
       <c r="N221" s="23"/>
       <c r="O221" s="23"/>
-      <c r="P221" s="19"/>
+      <c r="P221" s="23"/>
       <c r="Q221" s="19"/>
       <c r="R221" s="19"/>
       <c r="S221" s="19"/>
@@ -8295,8 +8497,9 @@
       <c r="X221" s="19"/>
       <c r="Y221" s="19"/>
       <c r="Z221" s="19"/>
-    </row>
-    <row r="222" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA221" s="19"/>
+    </row>
+    <row r="222" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="19"/>
       <c r="B222" s="22"/>
       <c r="C222" s="23"/>
@@ -8305,14 +8508,14 @@
       <c r="F222" s="23"/>
       <c r="G222" s="23"/>
       <c r="H222" s="24"/>
-      <c r="I222" s="25"/>
+      <c r="I222" s="24"/>
       <c r="J222" s="25"/>
       <c r="K222" s="25"/>
-      <c r="L222" s="23"/>
+      <c r="L222" s="25"/>
       <c r="M222" s="23"/>
       <c r="N222" s="23"/>
       <c r="O222" s="23"/>
-      <c r="P222" s="19"/>
+      <c r="P222" s="23"/>
       <c r="Q222" s="19"/>
       <c r="R222" s="19"/>
       <c r="S222" s="19"/>
@@ -8323,8 +8526,9 @@
       <c r="X222" s="19"/>
       <c r="Y222" s="19"/>
       <c r="Z222" s="19"/>
-    </row>
-    <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA222" s="19"/>
+    </row>
+    <row r="223" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="19"/>
       <c r="B223" s="22"/>
       <c r="C223" s="23"/>
@@ -8333,14 +8537,14 @@
       <c r="F223" s="23"/>
       <c r="G223" s="23"/>
       <c r="H223" s="24"/>
-      <c r="I223" s="25"/>
+      <c r="I223" s="24"/>
       <c r="J223" s="25"/>
       <c r="K223" s="25"/>
-      <c r="L223" s="23"/>
+      <c r="L223" s="25"/>
       <c r="M223" s="23"/>
       <c r="N223" s="23"/>
       <c r="O223" s="23"/>
-      <c r="P223" s="19"/>
+      <c r="P223" s="23"/>
       <c r="Q223" s="19"/>
       <c r="R223" s="19"/>
       <c r="S223" s="19"/>
@@ -8351,8 +8555,9 @@
       <c r="X223" s="19"/>
       <c r="Y223" s="19"/>
       <c r="Z223" s="19"/>
-    </row>
-    <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA223" s="19"/>
+    </row>
+    <row r="224" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="19"/>
       <c r="B224" s="22"/>
       <c r="C224" s="23"/>
@@ -8361,14 +8566,14 @@
       <c r="F224" s="23"/>
       <c r="G224" s="23"/>
       <c r="H224" s="24"/>
-      <c r="I224" s="25"/>
+      <c r="I224" s="24"/>
       <c r="J224" s="25"/>
       <c r="K224" s="25"/>
-      <c r="L224" s="23"/>
+      <c r="L224" s="25"/>
       <c r="M224" s="23"/>
       <c r="N224" s="23"/>
       <c r="O224" s="23"/>
-      <c r="P224" s="19"/>
+      <c r="P224" s="23"/>
       <c r="Q224" s="19"/>
       <c r="R224" s="19"/>
       <c r="S224" s="19"/>
@@ -8379,8 +8584,9 @@
       <c r="X224" s="19"/>
       <c r="Y224" s="19"/>
       <c r="Z224" s="19"/>
-    </row>
-    <row r="225" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA224" s="19"/>
+    </row>
+    <row r="225" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="19"/>
       <c r="B225" s="22"/>
       <c r="C225" s="23"/>
@@ -8389,14 +8595,14 @@
       <c r="F225" s="23"/>
       <c r="G225" s="23"/>
       <c r="H225" s="24"/>
-      <c r="I225" s="25"/>
+      <c r="I225" s="24"/>
       <c r="J225" s="25"/>
       <c r="K225" s="25"/>
-      <c r="L225" s="23"/>
+      <c r="L225" s="25"/>
       <c r="M225" s="23"/>
       <c r="N225" s="23"/>
       <c r="O225" s="23"/>
-      <c r="P225" s="19"/>
+      <c r="P225" s="23"/>
       <c r="Q225" s="19"/>
       <c r="R225" s="19"/>
       <c r="S225" s="19"/>
@@ -8407,8 +8613,9 @@
       <c r="X225" s="19"/>
       <c r="Y225" s="19"/>
       <c r="Z225" s="19"/>
-    </row>
-    <row r="226" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA225" s="19"/>
+    </row>
+    <row r="226" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="19"/>
       <c r="B226" s="22"/>
       <c r="C226" s="23"/>
@@ -8417,14 +8624,14 @@
       <c r="F226" s="23"/>
       <c r="G226" s="23"/>
       <c r="H226" s="24"/>
-      <c r="I226" s="25"/>
+      <c r="I226" s="24"/>
       <c r="J226" s="25"/>
       <c r="K226" s="25"/>
-      <c r="L226" s="23"/>
+      <c r="L226" s="25"/>
       <c r="M226" s="23"/>
       <c r="N226" s="23"/>
       <c r="O226" s="23"/>
-      <c r="P226" s="19"/>
+      <c r="P226" s="23"/>
       <c r="Q226" s="19"/>
       <c r="R226" s="19"/>
       <c r="S226" s="19"/>
@@ -8435,8 +8642,9 @@
       <c r="X226" s="19"/>
       <c r="Y226" s="19"/>
       <c r="Z226" s="19"/>
-    </row>
-    <row r="227" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA226" s="19"/>
+    </row>
+    <row r="227" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="19"/>
       <c r="B227" s="22"/>
       <c r="C227" s="23"/>
@@ -8445,14 +8653,14 @@
       <c r="F227" s="23"/>
       <c r="G227" s="23"/>
       <c r="H227" s="24"/>
-      <c r="I227" s="25"/>
+      <c r="I227" s="24"/>
       <c r="J227" s="25"/>
       <c r="K227" s="25"/>
-      <c r="L227" s="23"/>
+      <c r="L227" s="25"/>
       <c r="M227" s="23"/>
       <c r="N227" s="23"/>
       <c r="O227" s="23"/>
-      <c r="P227" s="19"/>
+      <c r="P227" s="23"/>
       <c r="Q227" s="19"/>
       <c r="R227" s="19"/>
       <c r="S227" s="19"/>
@@ -8463,8 +8671,9 @@
       <c r="X227" s="19"/>
       <c r="Y227" s="19"/>
       <c r="Z227" s="19"/>
-    </row>
-    <row r="228" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA227" s="19"/>
+    </row>
+    <row r="228" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="19"/>
       <c r="B228" s="22"/>
       <c r="C228" s="23"/>
@@ -8473,14 +8682,14 @@
       <c r="F228" s="23"/>
       <c r="G228" s="23"/>
       <c r="H228" s="24"/>
-      <c r="I228" s="25"/>
+      <c r="I228" s="24"/>
       <c r="J228" s="25"/>
       <c r="K228" s="25"/>
-      <c r="L228" s="23"/>
+      <c r="L228" s="25"/>
       <c r="M228" s="23"/>
       <c r="N228" s="23"/>
       <c r="O228" s="23"/>
-      <c r="P228" s="19"/>
+      <c r="P228" s="23"/>
       <c r="Q228" s="19"/>
       <c r="R228" s="19"/>
       <c r="S228" s="19"/>
@@ -8491,19 +8700,20 @@
       <c r="X228" s="19"/>
       <c r="Y228" s="19"/>
       <c r="Z228" s="19"/>
-    </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="AA228" s="19"/>
+    </row>
+    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9278,7 +9488,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C29:F102" xr:uid="{677BEDE7-1E6B-409C-8FA2-6B74431978B1}">
       <formula1>"Open,On-Going,Fixed,Verified,Released,Cloesed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M9:M28" xr:uid="{A11D220B-80E7-4B73-B3FA-7F254E2C39E2}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N9:N28" xr:uid="{A11D220B-80E7-4B73-B3FA-7F254E2C39E2}">
       <formula1>"Pass,Fail,N/A,Fixed,Reject,Reopen,Close"</formula1>
     </dataValidation>
   </dataValidations>
